--- a/NOAA/BuddInlet/Data/SoundToxinsActivity_Data_updated_PSI.xlsx
+++ b/NOAA/BuddInlet/Data/SoundToxinsActivity_Data_updated_PSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awebe\Desktop\Noctiluca_Narelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B172471B-0293-4A1E-A68C-8E03BE78C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2338230C-7F7C-4584-92AA-C2873CABBA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2736" yWindow="2076" windowWidth="10140" windowHeight="10410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WDOH DSP" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="19">
   <si>
     <t>4/11/2013</t>
   </si>
@@ -242,10 +242,7 @@
     </r>
   </si>
   <si>
-    <t>This section still needs to be entered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022 - end has not been QC'd after student entered the data. </t>
+    <t>Hearthfire Dock</t>
   </si>
 </sst>
 </file>
@@ -324,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +331,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,10 +511,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,8 +536,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -563,19 +548,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G303"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A251" sqref="A251:A253"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="I247" sqref="I247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -935,11 +935,12 @@
     <col min="4" max="4" width="11.3125" style="10" customWidth="1"/>
     <col min="5" max="5" width="10.5234375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1338,7 +1339,7 @@
       <c r="D29" s="13">
         <v>24</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
@@ -1717,7 +1718,7 @@
       <c r="D56" s="13">
         <v>45</v>
       </c>
-      <c r="F56" s="41"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
@@ -2026,7 +2027,7 @@
       <c r="D78" s="13">
         <v>20</v>
       </c>
-      <c r="F78" s="41"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
@@ -2839,7 +2840,7 @@
       <c r="D136" s="13">
         <v>32</v>
       </c>
-      <c r="F136" s="41"/>
+      <c r="F136" s="39"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
@@ -2919,10 +2920,10 @@
         <v>4</v>
       </c>
       <c r="C142" s="19">
-        <v>43875</v>
-      </c>
-      <c r="D142" s="16">
-        <v>4</v>
+        <v>43881</v>
+      </c>
+      <c r="D142" s="15">
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2933,11 +2934,12 @@
         <v>4</v>
       </c>
       <c r="C143" s="19">
-        <v>43881</v>
+        <v>43896</v>
       </c>
       <c r="D143" s="15">
-        <v>47</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E143" s="51"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4" t="s">
@@ -2947,181 +2949,194 @@
         <v>4</v>
       </c>
       <c r="C144" s="19">
-        <v>43882</v>
+        <v>43902</v>
       </c>
       <c r="D144" s="16">
+        <v>6</v>
+      </c>
+      <c r="E144" s="51"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="19">
+        <v>43910</v>
+      </c>
+      <c r="D145" s="15">
+        <v>16</v>
+      </c>
+      <c r="E145" s="51"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="19">
+        <v>43924</v>
+      </c>
+      <c r="D146" s="15">
+        <v>35</v>
+      </c>
+      <c r="E146" s="51"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="19">
+        <v>43938</v>
+      </c>
+      <c r="D147" s="16">
+        <v>11</v>
+      </c>
+      <c r="E147" s="51"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="19">
+        <v>43952</v>
+      </c>
+      <c r="D148" s="15">
+        <v>21</v>
+      </c>
+      <c r="E148" s="51"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="19">
+        <v>43966</v>
+      </c>
+      <c r="D149" s="16">
+        <v>8</v>
+      </c>
+      <c r="E149" s="51"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="19">
+        <v>43980</v>
+      </c>
+      <c r="D150" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="19">
-        <v>43896</v>
-      </c>
-      <c r="D145" s="15">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C146" s="19">
-        <v>43896</v>
-      </c>
-      <c r="D146" s="16">
+      <c r="E150" s="51"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="19">
+        <v>43994</v>
+      </c>
+      <c r="D151" s="16">
+        <v>6</v>
+      </c>
+      <c r="E151" s="51"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="19">
+        <v>44008</v>
+      </c>
+      <c r="D152" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A147" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="19">
-        <v>43902</v>
-      </c>
-      <c r="D147" s="16">
+      <c r="E152" s="51"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="19">
+        <v>44022</v>
+      </c>
+      <c r="D153" s="16">
+        <v>2</v>
+      </c>
+      <c r="E153" s="51"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="19">
+        <v>44036</v>
+      </c>
+      <c r="D154" s="16">
+        <v>1</v>
+      </c>
+      <c r="E154" s="51"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="19">
+        <v>44053</v>
+      </c>
+      <c r="D155" s="16">
+        <v>4</v>
+      </c>
+      <c r="E155" s="51"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="19">
+        <v>44063</v>
+      </c>
+      <c r="D156" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="19">
-        <v>43903</v>
-      </c>
-      <c r="D148" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149" s="19">
-        <v>43910</v>
-      </c>
-      <c r="D149" s="15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="19">
-        <v>43910</v>
-      </c>
-      <c r="D150" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="19">
-        <v>43917</v>
-      </c>
-      <c r="D151" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="19">
-        <v>43924</v>
-      </c>
-      <c r="D152" s="15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="19">
-        <v>43931</v>
-      </c>
-      <c r="D153" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A154" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="19">
-        <v>43938</v>
-      </c>
-      <c r="D154" s="16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="19">
-        <v>43938</v>
-      </c>
-      <c r="D155" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="19">
-        <v>43952</v>
-      </c>
-      <c r="D156" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156" s="51"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="4" t="s">
         <v>2</v>
       </c>
@@ -3129,13 +3144,14 @@
         <v>4</v>
       </c>
       <c r="C157" s="19">
-        <v>43966</v>
+        <v>44082</v>
       </c>
       <c r="D157" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="E157" s="51"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="4" t="s">
         <v>2</v>
       </c>
@@ -3143,13 +3159,13 @@
         <v>4</v>
       </c>
       <c r="C158" s="19">
-        <v>43980</v>
+        <v>44092</v>
       </c>
       <c r="D158" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="4" t="s">
         <v>2</v>
       </c>
@@ -3157,24 +3173,24 @@
         <v>4</v>
       </c>
       <c r="C159" s="19">
-        <v>43994</v>
+        <v>44104</v>
       </c>
       <c r="D159" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="19">
+        <v>44120</v>
+      </c>
+      <c r="D160" s="16">
         <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A160" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="19">
-        <v>44008</v>
-      </c>
-      <c r="D160" s="16">
-        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3185,10 +3201,10 @@
         <v>4</v>
       </c>
       <c r="C161" s="19">
-        <v>44022</v>
+        <v>44134</v>
       </c>
       <c r="D161" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3199,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="19">
-        <v>44036</v>
+        <v>44147</v>
       </c>
       <c r="D162" s="16">
         <v>1</v>
@@ -3213,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="C163" s="19">
-        <v>44053</v>
-      </c>
-      <c r="D163" s="16">
-        <v>4</v>
+        <v>44165</v>
+      </c>
+      <c r="D163" s="15">
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3227,10 +3243,10 @@
         <v>4</v>
       </c>
       <c r="C164" s="19">
-        <v>44063</v>
-      </c>
-      <c r="D164" s="16">
-        <v>6</v>
+        <v>44179</v>
+      </c>
+      <c r="D164" s="15">
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3241,10 +3257,10 @@
         <v>4</v>
       </c>
       <c r="C165" s="19">
-        <v>44082</v>
-      </c>
-      <c r="D165" s="16">
-        <v>2</v>
+        <v>44189</v>
+      </c>
+      <c r="D165" s="15">
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3255,10 +3271,10 @@
         <v>4</v>
       </c>
       <c r="C166" s="19">
-        <v>44092</v>
-      </c>
-      <c r="D166" s="16">
-        <v>2</v>
+        <v>44204</v>
+      </c>
+      <c r="D166" s="15">
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3269,10 +3285,10 @@
         <v>4</v>
       </c>
       <c r="C167" s="19">
-        <v>44104</v>
+        <v>44217</v>
       </c>
       <c r="D167" s="16">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3283,10 +3299,10 @@
         <v>4</v>
       </c>
       <c r="C168" s="19">
-        <v>44120</v>
+        <v>44230</v>
       </c>
       <c r="D168" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3297,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="C169" s="19">
-        <v>44134</v>
+        <v>44246</v>
       </c>
       <c r="D169" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3311,11 +3327,12 @@
         <v>4</v>
       </c>
       <c r="C170" s="19">
-        <v>44147</v>
+        <v>44260</v>
       </c>
       <c r="D170" s="16">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F170" s="39"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="4" t="s">
@@ -3325,12 +3342,11 @@
         <v>4</v>
       </c>
       <c r="C171" s="19">
-        <v>44165</v>
-      </c>
-      <c r="D171" s="15">
-        <v>23</v>
-      </c>
-      <c r="F171" s="41"/>
+        <v>44273</v>
+      </c>
+      <c r="D171" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="4" t="s">
@@ -3340,136 +3356,136 @@
         <v>4</v>
       </c>
       <c r="C172" s="19">
-        <v>44179</v>
-      </c>
-      <c r="D172" s="15">
-        <v>18</v>
+        <v>44287</v>
+      </c>
+      <c r="D172" s="16">
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A173" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C173" s="19">
-        <v>44189</v>
-      </c>
-      <c r="D173" s="15">
-        <v>21</v>
+      <c r="A173" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" s="34">
+        <v>44302</v>
+      </c>
+      <c r="D173" s="35">
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A174" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B174" s="5" t="s">
+      <c r="A174" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C174" s="19">
-        <v>44204</v>
-      </c>
-      <c r="D174" s="15">
-        <v>39</v>
+        <v>44316</v>
+      </c>
+      <c r="D174" s="16">
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A175" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="19">
-        <v>44217</v>
-      </c>
-      <c r="D175" s="16">
-        <v>14</v>
+      <c r="A175" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="38">
+        <v>44343</v>
+      </c>
+      <c r="D175" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A176" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="19">
-        <v>44230</v>
-      </c>
-      <c r="D176" s="16">
-        <v>8</v>
+      <c r="A176" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" s="38">
+        <v>44354</v>
+      </c>
+      <c r="D176" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A177" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" s="19">
-        <v>44246</v>
-      </c>
-      <c r="D177" s="16">
-        <v>8</v>
+      <c r="A177" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="38">
+        <v>44371</v>
+      </c>
+      <c r="D177" s="12">
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A178" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="19">
-        <v>44260</v>
-      </c>
-      <c r="D178" s="16">
-        <v>3</v>
+      <c r="A178" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="38">
+        <v>44385</v>
+      </c>
+      <c r="D178" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A179" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C179" s="19">
-        <v>44273</v>
-      </c>
-      <c r="D179" s="16">
-        <v>3</v>
+      <c r="A179" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179" s="38">
+        <v>44396</v>
+      </c>
+      <c r="D179" s="13">
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A180" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C180" s="19">
-        <v>44287</v>
-      </c>
-      <c r="D180" s="16">
-        <v>6</v>
+      <c r="A180" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="38">
+        <v>44410</v>
+      </c>
+      <c r="D180" s="12">
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A181" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B181" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C181" s="36">
-        <v>44302</v>
-      </c>
-      <c r="D181" s="37">
-        <v>2</v>
+      <c r="A181" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181" s="38">
+        <v>44424</v>
+      </c>
+      <c r="D181" s="12">
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -3479,10 +3495,10 @@
       <c r="B182" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C182" s="19">
-        <v>44316</v>
-      </c>
-      <c r="D182" s="16">
+      <c r="C182" s="38">
+        <v>44438</v>
+      </c>
+      <c r="D182" s="12">
         <v>2</v>
       </c>
     </row>
@@ -3490,149 +3506,149 @@
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C183" s="40">
-        <v>44343</v>
-      </c>
-      <c r="D183" s="12">
-        <v>2</v>
-      </c>
-      <c r="G183" s="38"/>
+        <v>44453</v>
+      </c>
+      <c r="D183" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="G183" s="36"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C184" s="40">
-        <v>44354</v>
-      </c>
-      <c r="D184" s="12">
-        <v>2</v>
-      </c>
-      <c r="G184" s="38"/>
+        <v>44467</v>
+      </c>
+      <c r="D184" s="42">
+        <v>1</v>
+      </c>
+      <c r="G184" s="36"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B185" s="9" t="s">
+      <c r="B185" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C185" s="40">
-        <v>44371</v>
-      </c>
-      <c r="D185" s="12">
-        <v>11</v>
-      </c>
-      <c r="G185" s="38"/>
+        <v>44481</v>
+      </c>
+      <c r="D185" s="42">
+        <v>5</v>
+      </c>
+      <c r="F185" s="39"/>
+      <c r="G185" s="36"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B186" s="9" t="s">
+      <c r="B186" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C186" s="40">
-        <v>44385</v>
-      </c>
-      <c r="D186" s="13">
-        <v>28</v>
-      </c>
-      <c r="F186" s="41"/>
-      <c r="G186" s="38"/>
+        <v>44495</v>
+      </c>
+      <c r="D186" s="42">
+        <v>5</v>
+      </c>
+      <c r="G186" s="36"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C187" s="40">
-        <v>44396</v>
-      </c>
-      <c r="D187" s="13">
-        <v>25</v>
-      </c>
-      <c r="G187" s="38"/>
+        <v>44523</v>
+      </c>
+      <c r="D187" s="43">
+        <v>16</v>
+      </c>
+      <c r="G187" s="36"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C188" s="40">
-        <v>44410</v>
-      </c>
-      <c r="D188" s="12">
-        <v>9</v>
-      </c>
-      <c r="G188" s="38"/>
+        <v>44538</v>
+      </c>
+      <c r="D188" s="42">
+        <v>5</v>
+      </c>
+      <c r="G188" s="36"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B189" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C189" s="40">
-        <v>44424</v>
-      </c>
-      <c r="D189" s="12">
-        <v>10</v>
-      </c>
-      <c r="G189" s="38"/>
+        <v>44580</v>
+      </c>
+      <c r="D189" s="42">
+        <v>2</v>
+      </c>
+      <c r="G189" s="36"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="41" t="s">
         <v>4</v>
       </c>
       <c r="C190" s="40">
-        <v>44438</v>
-      </c>
-      <c r="D190" s="12">
-        <v>2</v>
-      </c>
-      <c r="G190" s="38"/>
+        <v>44595</v>
+      </c>
+      <c r="D190" s="42">
+        <v>2</v>
+      </c>
+      <c r="G190" s="36"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B191" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C191" s="44">
-        <v>44453</v>
-      </c>
-      <c r="D191" s="46">
-        <v>0.5</v>
-      </c>
-      <c r="G191" s="38"/>
+      <c r="B191" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="40">
+        <v>44608</v>
+      </c>
+      <c r="D191" s="42">
+        <v>2</v>
+      </c>
+      <c r="G191" s="36"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B192" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C192" s="44">
-        <v>44467</v>
-      </c>
-      <c r="D192" s="46">
+      <c r="B192" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="40">
+        <v>44637</v>
+      </c>
+      <c r="D192" s="42">
         <v>1</v>
       </c>
     </row>
@@ -3640,961 +3656,1066 @@
       <c r="A193" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C193" s="44">
-        <v>44481</v>
-      </c>
-      <c r="D193" s="46">
-        <v>5</v>
+      <c r="B193" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="40">
+        <v>44649</v>
+      </c>
+      <c r="D193" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B194" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="44">
-        <v>44495</v>
-      </c>
-      <c r="D194" s="46">
-        <v>5</v>
+      <c r="B194" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="40">
+        <v>44662</v>
+      </c>
+      <c r="D194" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B195" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="44">
-        <v>44523</v>
-      </c>
-      <c r="D195" s="47">
-        <v>16</v>
+      <c r="B195" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="40">
+        <v>44676</v>
+      </c>
+      <c r="D195" s="42">
+        <v>0.5</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B196" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="44">
-        <v>44538</v>
-      </c>
-      <c r="D196" s="46">
-        <v>5</v>
+      <c r="B196" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="40">
+        <v>44692</v>
+      </c>
+      <c r="D196" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B197" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C197" s="44">
-        <v>44580</v>
-      </c>
-      <c r="D197" s="46">
-        <v>2</v>
+      <c r="B197" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="40">
+        <v>44705</v>
+      </c>
+      <c r="D197" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C198" s="44">
-        <v>44595</v>
-      </c>
-      <c r="D198" s="46">
-        <v>2</v>
+      <c r="B198" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" s="40">
+        <v>44721</v>
+      </c>
+      <c r="D198" s="42">
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B199" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="44">
-        <v>44608</v>
-      </c>
-      <c r="D199" s="46">
-        <v>2</v>
+      <c r="B199" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="40">
+        <v>44727</v>
+      </c>
+      <c r="D199" s="42">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B200" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="44">
-        <v>44637</v>
-      </c>
-      <c r="D200" s="46">
-        <v>1</v>
+      <c r="B200" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C200" s="40">
+        <v>44734</v>
+      </c>
+      <c r="D200" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B201" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C201" s="44">
-        <v>44649</v>
-      </c>
-      <c r="D201" s="46">
-        <v>1</v>
+      <c r="B201" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C201" s="40">
+        <v>44747</v>
+      </c>
+      <c r="D201" s="42">
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B202" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="44">
-        <v>44662</v>
-      </c>
-      <c r="D202" s="46">
-        <v>1</v>
+      <c r="B202" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="40">
+        <v>44754</v>
+      </c>
+      <c r="D202" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B203" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="44">
-        <v>44676</v>
-      </c>
-      <c r="D203" s="46">
-        <v>0.5</v>
+      <c r="B203" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="40">
+        <v>44762</v>
+      </c>
+      <c r="D203" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B204" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="44">
-        <v>44692</v>
-      </c>
-      <c r="D204" s="46">
-        <v>0</v>
+      <c r="B204" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" s="40">
+        <v>44775</v>
+      </c>
+      <c r="D204" s="43">
+        <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B205" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="44">
-        <v>44705</v>
-      </c>
-      <c r="D205" s="46">
-        <v>1</v>
+      <c r="B205" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="40">
+        <v>44783</v>
+      </c>
+      <c r="D205" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B206" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="44">
-        <v>44721</v>
-      </c>
-      <c r="D206" s="46">
-        <v>7</v>
+      <c r="B206" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C206" s="40">
+        <v>44789</v>
+      </c>
+      <c r="D206" s="42">
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B207" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C207" s="44">
-        <v>44727</v>
-      </c>
-      <c r="D207" s="46">
-        <v>4</v>
+      <c r="B207" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C207" s="40">
+        <v>44803</v>
+      </c>
+      <c r="D207" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B208" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C208" s="44">
-        <v>44734</v>
-      </c>
-      <c r="D208" s="46">
-        <v>3</v>
+      <c r="B208" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208" s="40">
+        <v>44817</v>
+      </c>
+      <c r="D208" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B209" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209" s="44">
-        <v>44747</v>
-      </c>
-      <c r="D209" s="46">
-        <v>10</v>
+      <c r="B209" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="40">
+        <v>44832</v>
+      </c>
+      <c r="D209" s="42">
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B210" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C210" s="44">
-        <v>44754</v>
-      </c>
-      <c r="D210" s="46">
-        <v>8</v>
+      <c r="B210" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" s="40">
+        <v>44846</v>
+      </c>
+      <c r="D210" s="42">
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B211" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C211" s="44">
-        <v>44762</v>
-      </c>
-      <c r="D211" s="46">
-        <v>8</v>
+      <c r="B211" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C211" s="40">
+        <v>44860</v>
+      </c>
+      <c r="D211" s="42">
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B212" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C212" s="44">
-        <v>44775</v>
-      </c>
-      <c r="D212" s="47">
-        <v>16</v>
+      <c r="B212" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="40">
+        <v>44865</v>
+      </c>
+      <c r="D212" s="42">
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="44">
-        <v>44783</v>
-      </c>
-      <c r="D213" s="46">
-        <v>8</v>
+      <c r="B213" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="40">
+        <v>44874</v>
+      </c>
+      <c r="D213" s="42">
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B214" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C214" s="44">
-        <v>44789</v>
-      </c>
-      <c r="D214" s="46">
-        <v>10</v>
+      <c r="B214" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C214" s="40">
+        <v>44887</v>
+      </c>
+      <c r="D214" s="42">
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="44">
-        <v>44803</v>
-      </c>
-      <c r="D215" s="46">
-        <v>2</v>
+      <c r="B215" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="40">
+        <v>44900</v>
+      </c>
+      <c r="D215" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B216" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C216" s="44">
-        <v>44817</v>
-      </c>
-      <c r="D216" s="46">
-        <v>5</v>
+      <c r="B216" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" s="40">
+        <v>44915</v>
+      </c>
+      <c r="D216" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C217" s="44">
-        <v>44832</v>
-      </c>
-      <c r="D217" s="46">
-        <v>7</v>
+      <c r="B217" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="40">
+        <v>44930</v>
+      </c>
+      <c r="D217" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B218" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="44">
-        <v>44846</v>
-      </c>
-      <c r="D218" s="46">
-        <v>9</v>
+      <c r="B218" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="40">
+        <v>44944</v>
+      </c>
+      <c r="D218" s="42">
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B219" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C219" s="44">
-        <v>44860</v>
-      </c>
-      <c r="D219" s="46">
-        <v>12</v>
+      <c r="B219" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C219" s="40">
+        <v>44959</v>
+      </c>
+      <c r="D219" s="43">
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B220" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="44">
-        <v>44865</v>
-      </c>
-      <c r="D220" s="46">
-        <v>12</v>
+      <c r="B220" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="40">
+        <v>44965</v>
+      </c>
+      <c r="D220" s="42">
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B221" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C221" s="44">
-        <v>44874</v>
-      </c>
-      <c r="D221" s="46">
-        <v>12</v>
+      <c r="B221" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221" s="40">
+        <v>44972</v>
+      </c>
+      <c r="D221" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B222" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="44">
-        <v>44887</v>
-      </c>
-      <c r="D222" s="46">
-        <v>4</v>
+      <c r="B222" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="40">
+        <v>44978</v>
+      </c>
+      <c r="D222" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B223" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C223" s="44">
-        <v>44900</v>
-      </c>
-      <c r="D223" s="46">
-        <v>5</v>
+      <c r="B223" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C223" s="40">
+        <v>44985</v>
+      </c>
+      <c r="D223" s="42">
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B224" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="44">
-        <v>44915</v>
-      </c>
-      <c r="D224" s="46">
-        <v>8</v>
+      <c r="B224" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="40">
+        <v>45000</v>
+      </c>
+      <c r="D224" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B225" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C225" s="44">
-        <v>44930</v>
-      </c>
-      <c r="D225" s="46">
-        <v>2</v>
+      <c r="B225" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C225" s="40">
+        <v>45012</v>
+      </c>
+      <c r="D225" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B226" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C226" s="44">
-        <v>44944</v>
-      </c>
-      <c r="D226" s="46">
-        <v>12</v>
+      <c r="B226" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C226" s="40">
+        <v>45026</v>
+      </c>
+      <c r="D226" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B227" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C227" s="44">
-        <v>44959</v>
-      </c>
-      <c r="D227" s="47">
-        <v>19</v>
+      <c r="B227" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C227" s="40">
+        <v>45041</v>
+      </c>
+      <c r="D227" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B228" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C228" s="44">
-        <v>44965</v>
-      </c>
-      <c r="D228" s="46">
-        <v>9</v>
+      <c r="B228" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" s="40">
+        <v>45056</v>
+      </c>
+      <c r="D228" s="42">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B229" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C229" s="44">
-        <v>44972</v>
-      </c>
-      <c r="D229" s="46">
-        <v>8</v>
+      <c r="B229" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229" s="40">
+        <v>45069</v>
+      </c>
+      <c r="D229" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B230" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" s="44">
-        <v>44978</v>
-      </c>
-      <c r="D230" s="46">
-        <v>5</v>
+      <c r="B230" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C230" s="40">
+        <v>45085</v>
+      </c>
+      <c r="D230" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B231" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" s="44">
-        <v>44985</v>
-      </c>
-      <c r="D231" s="46">
-        <v>6</v>
+      <c r="B231" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C231" s="40">
+        <v>45099</v>
+      </c>
+      <c r="D231" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B232" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" s="44">
-        <v>45000</v>
-      </c>
-      <c r="D232" s="46">
-        <v>5</v>
+      <c r="B232" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="40">
+        <v>45110</v>
+      </c>
+      <c r="D232" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="44">
-        <v>45012</v>
-      </c>
-      <c r="D233" s="46">
-        <v>1</v>
+      <c r="B233" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="40">
+        <v>45124</v>
+      </c>
+      <c r="D233" s="42">
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B234" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" s="44">
-        <v>45026</v>
-      </c>
-      <c r="D234" s="46">
-        <v>1</v>
+      <c r="B234" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="40">
+        <v>45132</v>
+      </c>
+      <c r="D234" s="42">
+        <v>8</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B235" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="44">
-        <v>45041</v>
-      </c>
-      <c r="D235" s="46">
-        <v>1</v>
+      <c r="B235" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="40">
+        <v>45140</v>
+      </c>
+      <c r="D235" s="42">
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" s="44">
-        <v>45056</v>
-      </c>
-      <c r="D236" s="46">
-        <v>0</v>
+      <c r="B236" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="40">
+        <v>45152</v>
+      </c>
+      <c r="D236" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" s="44">
-        <v>45069</v>
-      </c>
-      <c r="D237" s="46">
-        <v>3</v>
+      <c r="B237" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="40">
+        <v>45166</v>
+      </c>
+      <c r="D237" s="42">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" s="44">
-        <v>45085</v>
-      </c>
-      <c r="D238" s="46">
-        <v>2</v>
+      <c r="B238" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="40">
+        <v>45180</v>
+      </c>
+      <c r="D238" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B239" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" s="44">
-        <v>45099</v>
-      </c>
-      <c r="D239" s="46">
-        <v>1</v>
+      <c r="B239" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C239" s="40">
+        <v>45194</v>
+      </c>
+      <c r="D239" s="42">
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" s="44">
-        <v>45110</v>
-      </c>
-      <c r="D240" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B240" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" s="40">
+        <v>45209</v>
+      </c>
+      <c r="D240" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B241" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" s="44">
-        <v>45124</v>
-      </c>
-      <c r="D241" s="46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B241" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C241" s="40">
+        <v>45225</v>
+      </c>
+      <c r="D241" s="43">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B242" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" s="44">
-        <v>45132</v>
-      </c>
-      <c r="D242" s="46">
+      <c r="B242" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C242" s="40">
+        <v>45231</v>
+      </c>
+      <c r="D242" s="42">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B243" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C243" s="44">
-        <v>45140</v>
-      </c>
-      <c r="D243" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B243" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" s="47">
+        <v>45236</v>
+      </c>
+      <c r="D243" s="48">
+        <v>4</v>
+      </c>
+      <c r="E243" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B244" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C244" s="44">
-        <v>45152</v>
-      </c>
-      <c r="D244" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B244" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C244" s="49">
+        <v>45245</v>
+      </c>
+      <c r="D244" s="15">
+        <v>80</v>
+      </c>
+      <c r="E244" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B245" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C245" s="44">
-        <v>45166</v>
-      </c>
-      <c r="D245" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B245" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245" s="49">
+        <v>45251</v>
+      </c>
+      <c r="D245" s="53">
+        <v>67</v>
+      </c>
+      <c r="E245" s="54">
+        <v>75</v>
+      </c>
+      <c r="F245" s="55"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B246" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C246" s="44">
-        <v>45180</v>
-      </c>
-      <c r="D246" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B246" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C246" s="49">
+        <v>45259</v>
+      </c>
+      <c r="D246" s="53">
+        <v>23</v>
+      </c>
+      <c r="E246" s="54">
+        <v>67</v>
+      </c>
+      <c r="F246" s="55"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B247" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C247" s="44">
-        <v>45194</v>
-      </c>
-      <c r="D247" s="46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B247" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C247" s="49">
+        <v>45265</v>
+      </c>
+      <c r="D247" s="53">
+        <v>28</v>
+      </c>
+      <c r="E247" s="54">
+        <v>77</v>
+      </c>
+      <c r="F247" s="55"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B248" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C248" s="44">
-        <v>45209</v>
-      </c>
-      <c r="D248" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B248" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="19">
+        <v>45273</v>
+      </c>
+      <c r="D248" s="15">
+        <v>56</v>
+      </c>
+      <c r="E248" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B249" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" s="44">
-        <v>45225</v>
-      </c>
-      <c r="D249" s="47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B249" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C249" s="19">
+        <v>45280</v>
+      </c>
+      <c r="D249" s="15">
+        <v>21</v>
+      </c>
+      <c r="E249" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B250" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="44">
-        <v>45231</v>
-      </c>
-      <c r="D250" s="46">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B250" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="19">
+        <v>45286</v>
+      </c>
+      <c r="D250" s="15">
+        <v>63</v>
+      </c>
+      <c r="E250" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B251" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C251" s="44">
-        <v>45236</v>
-      </c>
-      <c r="D251" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B251" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C251" s="19">
+        <v>45293</v>
+      </c>
+      <c r="D251" s="15">
+        <v>76</v>
+      </c>
+      <c r="E251" s="1">
+        <v>129</v>
+      </c>
+      <c r="I251" s="52"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B252" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C252" s="44">
-        <v>45245</v>
-      </c>
-      <c r="D252" s="23"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B252" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" s="19">
+        <v>45300</v>
+      </c>
+      <c r="D252" s="50">
+        <v>9</v>
+      </c>
+      <c r="E252" s="1">
+        <v>94</v>
+      </c>
+      <c r="I252" s="51"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B253" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="44">
-        <v>45245</v>
-      </c>
-      <c r="D253" s="23"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="21"/>
-      <c r="B254" s="21"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="23"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" s="21"/>
-      <c r="B255" s="21"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="23"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" s="21"/>
-      <c r="B256" s="21"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="23"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" s="21"/>
-      <c r="B257" s="21"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="23"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B253" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="19">
+        <v>45308</v>
+      </c>
+      <c r="D253" s="15">
+        <v>70</v>
+      </c>
+      <c r="E253" s="1">
+        <v>96</v>
+      </c>
+      <c r="I253" s="52"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="19">
+        <v>45314</v>
+      </c>
+      <c r="D254" s="15">
+        <v>43</v>
+      </c>
+      <c r="E254" s="1">
+        <v>40</v>
+      </c>
+      <c r="I254" s="52"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C255" s="19">
+        <v>45321</v>
+      </c>
+      <c r="D255" s="15">
+        <v>37</v>
+      </c>
+      <c r="E255" s="1">
+        <v>44</v>
+      </c>
+      <c r="I255" s="52"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256" s="19">
+        <v>45328</v>
+      </c>
+      <c r="D256" s="15">
+        <v>38</v>
+      </c>
+      <c r="E256" s="1">
+        <v>29</v>
+      </c>
+      <c r="I256" s="52"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257" s="19">
+        <v>45335</v>
+      </c>
+      <c r="D257" s="15">
+        <v>34</v>
+      </c>
+      <c r="E257" s="1">
+        <v>30</v>
+      </c>
+      <c r="I257" s="51"/>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="21"/>
       <c r="B258" s="21"/>
       <c r="C258" s="20"/>
       <c r="D258" s="23"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E258" s="1"/>
+      <c r="I258" s="52"/>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="21"/>
       <c r="B259" s="21"/>
       <c r="C259" s="20"/>
       <c r="D259" s="23"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E259" s="1"/>
+      <c r="I259" s="52"/>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="21"/>
       <c r="B260" s="21"/>
       <c r="C260" s="20"/>
       <c r="D260" s="23"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E260" s="1"/>
+      <c r="I260" s="51"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="21"/>
       <c r="B261" s="21"/>
       <c r="C261" s="20"/>
       <c r="D261" s="23"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E261" s="1"/>
+      <c r="I261" s="51"/>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="21"/>
       <c r="B262" s="21"/>
       <c r="C262" s="20"/>
       <c r="D262" s="23"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262" s="1"/>
+      <c r="I262" s="51"/>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="21"/>
       <c r="B263" s="21"/>
       <c r="C263" s="20"/>
       <c r="D263" s="23"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E263" s="1"/>
+      <c r="I263" s="51"/>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="21"/>
       <c r="B264" s="21"/>
       <c r="C264" s="20"/>
       <c r="D264" s="23"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E264" s="1"/>
+      <c r="I264" s="51"/>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="21"/>
       <c r="B265" s="21"/>
       <c r="C265" s="20"/>
       <c r="D265" s="23"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="21"/>
       <c r="B266" s="21"/>
       <c r="C266" s="20"/>
       <c r="D266" s="23"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="21"/>
       <c r="B267" s="21"/>
       <c r="C267" s="20"/>
       <c r="D267" s="23"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="21"/>
       <c r="B268" s="21"/>
       <c r="C268" s="20"/>
       <c r="D268" s="23"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="21"/>
       <c r="B269" s="21"/>
       <c r="C269" s="20"/>
       <c r="D269" s="23"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="21"/>
       <c r="B270" s="21"/>
       <c r="C270" s="20"/>
       <c r="D270" s="23"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="21"/>
       <c r="B271" s="21"/>
       <c r="C271" s="20"/>
       <c r="D271" s="23"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="21"/>
       <c r="B272" s="21"/>
       <c r="C272" s="20"/>
@@ -4658,37 +4779,37 @@
       <c r="A282" s="21"/>
       <c r="B282" s="21"/>
       <c r="C282" s="20"/>
-      <c r="D282" s="23"/>
+      <c r="D282" s="22"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="21"/>
       <c r="B283" s="21"/>
       <c r="C283" s="20"/>
-      <c r="D283" s="23"/>
+      <c r="D283" s="22"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="21"/>
       <c r="B284" s="21"/>
       <c r="C284" s="20"/>
-      <c r="D284" s="23"/>
+      <c r="D284" s="22"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="21"/>
       <c r="B285" s="21"/>
       <c r="C285" s="20"/>
-      <c r="D285" s="23"/>
+      <c r="D285" s="22"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="21"/>
       <c r="B286" s="21"/>
       <c r="C286" s="20"/>
-      <c r="D286" s="23"/>
+      <c r="D286" s="22"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="21"/>
       <c r="B287" s="21"/>
       <c r="C287" s="20"/>
-      <c r="D287" s="23"/>
+      <c r="D287" s="22"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="21"/>
@@ -4706,88 +4827,40 @@
       <c r="A290" s="21"/>
       <c r="B290" s="21"/>
       <c r="C290" s="20"/>
-      <c r="D290" s="22"/>
+      <c r="D290" s="23"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="21"/>
       <c r="B291" s="21"/>
       <c r="C291" s="20"/>
-      <c r="D291" s="22"/>
+      <c r="D291" s="23"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="21"/>
       <c r="B292" s="21"/>
       <c r="C292" s="20"/>
-      <c r="D292" s="22"/>
+      <c r="D292" s="23"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="21"/>
       <c r="B293" s="21"/>
       <c r="C293" s="20"/>
-      <c r="D293" s="22"/>
+      <c r="D293" s="23"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="21"/>
       <c r="B294" s="21"/>
       <c r="C294" s="20"/>
-      <c r="D294" s="22"/>
+      <c r="D294" s="23"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="21"/>
       <c r="B295" s="21"/>
-      <c r="C295" s="20"/>
-      <c r="D295" s="22"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A296" s="21"/>
-      <c r="B296" s="21"/>
-      <c r="C296" s="20"/>
-      <c r="D296" s="23"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A297" s="21"/>
-      <c r="B297" s="21"/>
-      <c r="C297" s="20"/>
-      <c r="D297" s="23"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A298" s="21"/>
-      <c r="B298" s="21"/>
-      <c r="C298" s="20"/>
-      <c r="D298" s="23"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A299" s="21"/>
-      <c r="B299" s="21"/>
-      <c r="C299" s="20"/>
-      <c r="D299" s="23"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A300" s="21"/>
-      <c r="B300" s="21"/>
-      <c r="C300" s="20"/>
-      <c r="D300" s="23"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A301" s="21"/>
-      <c r="B301" s="21"/>
-      <c r="C301" s="20"/>
-      <c r="D301" s="23"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A302" s="21"/>
-      <c r="B302" s="21"/>
-      <c r="C302" s="20"/>
-      <c r="D302" s="23"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A303" s="21"/>
-      <c r="B303" s="21"/>
-      <c r="D303" s="23"/>
+      <c r="D295" s="23"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C183:C190">
-    <sortCondition descending="1" ref="C183"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C175:C182">
+    <sortCondition descending="1" ref="C175"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4796,10 +4869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:G311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4809,8 +4882,8 @@
     <col min="3" max="3" width="2.1015625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.89453125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7890625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.20703125" customWidth="1"/>
+    <col min="6" max="6" width="15.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.20703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.95">
@@ -4826,16 +4899,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="30"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="44" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4853,7 +4926,9 @@
       <c r="E3" s="7">
         <v>83</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <v>3</v>
       </c>
@@ -4869,8 +4944,12 @@
       <c r="D4" s="7">
         <v>75</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <v>25</v>
       </c>
@@ -4886,8 +4965,12 @@
       <c r="D5" s="7">
         <v>80</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <v>20</v>
       </c>
@@ -4903,9 +4986,15 @@
       <c r="D6" s="7">
         <v>100</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
@@ -4918,7 +5007,9 @@
       <c r="D7" s="7">
         <v>75</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
       <c r="F7" s="7">
         <v>17</v>
       </c>
@@ -4934,10 +5025,18 @@
         <v>0</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
@@ -4947,10 +5046,18 @@
         <v>0</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8">
@@ -4963,9 +5070,15 @@
       <c r="D10" s="7">
         <v>100</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8">
@@ -4975,12 +5088,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="24"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7">
         <v>100</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
@@ -4996,7 +5115,9 @@
       <c r="E12" s="7">
         <v>67</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
       <c r="G12" s="7">
         <v>16</v>
       </c>
@@ -5033,9 +5154,15 @@
       <c r="D14" s="7">
         <v>100</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
@@ -5048,9 +5175,15 @@
       <c r="D15" s="7">
         <v>100</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8">
@@ -5060,12 +5193,18 @@
         <v>71</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
       <c r="E16" s="7">
         <v>100</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
@@ -5099,8 +5238,12 @@
       <c r="D18" s="7">
         <v>75</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
       <c r="G18" s="7">
         <v>25</v>
       </c>
@@ -5116,8 +5259,12 @@
       <c r="D19" s="7">
         <v>50</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
       <c r="G19" s="7">
         <v>50</v>
       </c>
@@ -5130,11 +5277,15 @@
         <v>113</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
       <c r="E20" s="7">
         <v>79</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
       <c r="G20" s="7">
         <v>21</v>
       </c>
@@ -5147,11 +5298,15 @@
         <v>18</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
       <c r="E21" s="7">
         <v>67</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
       <c r="G21" s="7">
         <v>33</v>
       </c>
@@ -5164,11 +5319,15 @@
         <v>36</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
       <c r="E22" s="7">
         <v>67</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
       <c r="G22" s="7">
         <v>33</v>
       </c>
@@ -5205,9 +5364,15 @@
       <c r="D24" s="7">
         <v>100</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8">
@@ -5223,7 +5388,9 @@
       <c r="E25" s="7">
         <v>79</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
       <c r="G25" s="7">
         <v>5</v>
       </c>
@@ -5239,9 +5406,15 @@
       <c r="D26" s="7">
         <v>100</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8">
@@ -5251,10 +5424,18 @@
         <v>6</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8">
@@ -5267,9 +5448,15 @@
       <c r="D28" s="7">
         <v>100</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8">
@@ -5282,9 +5469,15 @@
       <c r="D29" s="7">
         <v>100</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8">
@@ -5294,12 +5487,18 @@
         <v>6</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="7"/>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
       <c r="E30" s="7">
         <v>100</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="12">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8">
@@ -5309,12 +5508,18 @@
         <v>6</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
       <c r="F31" s="7">
         <v>100</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8">
@@ -5327,9 +5532,15 @@
       <c r="D32" s="7">
         <v>100</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8">
@@ -5339,10 +5550,18 @@
         <v>0</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8">
@@ -5352,10 +5571,18 @@
         <v>0</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8">
@@ -5365,10 +5592,18 @@
         <v>0</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8">
@@ -5378,12 +5613,18 @@
         <v>6</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="D36" s="12">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
       <c r="F36" s="7">
         <v>100</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8">
@@ -5393,9 +5634,15 @@
         <v>6</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
       <c r="G37" s="7">
         <v>100</v>
       </c>
@@ -5408,12 +5655,18 @@
         <v>132</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="7"/>
+      <c r="D38" s="12">
+        <v>0</v>
+      </c>
       <c r="E38" s="7">
         <v>100</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="F38" s="12">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8">
@@ -5429,7 +5682,9 @@
       <c r="E39" s="7">
         <v>29</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
       <c r="G39" s="7">
         <v>9</v>
       </c>
@@ -5442,10 +5697,18 @@
         <v>0</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8">
@@ -5461,8 +5724,12 @@
       <c r="E41" s="7">
         <v>67</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="F41" s="12">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8">
@@ -5475,8 +5742,12 @@
       <c r="D42" s="7">
         <v>64</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0</v>
+      </c>
       <c r="G42" s="7">
         <v>36</v>
       </c>
@@ -5489,10 +5760,18 @@
         <v>0</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8">
@@ -5505,9 +5784,15 @@
       <c r="D44" s="7">
         <v>100</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8">
@@ -5517,12 +5802,18 @@
         <v>36</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
       <c r="E45" s="7">
         <v>100</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="F45" s="12">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8">
@@ -5532,12 +5823,18 @@
         <v>202</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
       <c r="E46" s="7">
         <v>100</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="12">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8">
@@ -5553,8 +5850,12 @@
       <c r="E47" s="7">
         <v>63</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
+      <c r="F47" s="12">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8">
@@ -5564,12 +5865,18 @@
         <v>54</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
       <c r="E48" s="7">
         <v>100</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8">
@@ -5579,12 +5886,18 @@
         <v>18</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
       <c r="E49" s="7">
         <v>100</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8">
@@ -5603,7 +5916,9 @@
       <c r="F50" s="7">
         <v>2</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8">
@@ -5613,12 +5928,18 @@
         <v>18</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
       <c r="E51" s="7">
         <v>100</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="F51" s="12">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8">
@@ -5628,12 +5949,18 @@
         <v>143</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
       <c r="E52" s="7">
         <v>100</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="F52" s="12">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8">
@@ -5646,9 +5973,15 @@
       <c r="D53" s="7">
         <v>100</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8">
@@ -5661,9 +5994,15 @@
       <c r="D54" s="7">
         <v>100</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8">
@@ -5673,12 +6012,18 @@
         <v>12</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
       <c r="E55" s="7">
         <v>100</v>
       </c>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8">
@@ -5688,12 +6033,18 @@
         <v>280</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
       <c r="E56" s="7">
         <v>100</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="F56" s="12">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="6">
@@ -5712,7 +6063,9 @@
       <c r="F57" s="7">
         <v>17</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8">
@@ -5728,7 +6081,9 @@
       <c r="E58" s="7">
         <v>82</v>
       </c>
-      <c r="F58" s="7"/>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
       <c r="G58" s="7">
         <v>8</v>
       </c>
@@ -5750,7 +6105,9 @@
       <c r="F59" s="7">
         <v>5</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8">
@@ -5760,12 +6117,18 @@
         <v>24</v>
       </c>
       <c r="C60" s="24"/>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
       <c r="E60" s="7">
         <v>100</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="F60" s="12">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8">
@@ -5781,8 +6144,12 @@
       <c r="E61" s="7">
         <v>95</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="F61" s="12">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8">
@@ -5792,12 +6159,18 @@
         <v>12</v>
       </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="7"/>
+      <c r="D62" s="12">
+        <v>0</v>
+      </c>
       <c r="E62" s="7">
         <v>100</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8">
@@ -5807,12 +6180,18 @@
         <v>48</v>
       </c>
       <c r="C63" s="24"/>
-      <c r="D63" s="7"/>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
       <c r="E63" s="7">
         <v>100</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="F63" s="12">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8">
@@ -5822,12 +6201,18 @@
         <v>298</v>
       </c>
       <c r="C64" s="24"/>
-      <c r="D64" s="7"/>
+      <c r="D64" s="12">
+        <v>0</v>
+      </c>
       <c r="E64" s="7">
         <v>100</v>
       </c>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8">
@@ -5846,7 +6231,9 @@
       <c r="F65" s="7">
         <v>10</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8">
@@ -5856,12 +6243,18 @@
         <v>768</v>
       </c>
       <c r="C66" s="24"/>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
       <c r="E66" s="7">
         <v>100</v>
       </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="F66" s="12">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8">
@@ -5877,8 +6270,12 @@
       <c r="E67" s="7">
         <v>81</v>
       </c>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8">
@@ -5897,7 +6294,9 @@
       <c r="F68" s="7">
         <v>2</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8">
@@ -5913,8 +6312,12 @@
       <c r="E69" s="7">
         <v>79</v>
       </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8">
@@ -5930,8 +6333,12 @@
       <c r="E70" s="7">
         <v>68</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8">
@@ -5950,7 +6357,9 @@
       <c r="F71" s="7">
         <v>2</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8">
@@ -5960,12 +6369,18 @@
         <v>12</v>
       </c>
       <c r="C72" s="24"/>
-      <c r="D72" s="7"/>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
       <c r="E72" s="7">
         <v>100</v>
       </c>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
+      <c r="F72" s="7">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8">
@@ -5999,9 +6414,15 @@
       <c r="D74" s="7">
         <v>100</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8">
@@ -6032,10 +6453,18 @@
         <v>0</v>
       </c>
       <c r="C76" s="24"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="7">
+        <v>0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8">
@@ -6072,8 +6501,12 @@
       <c r="E78" s="7">
         <v>98</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8">
@@ -6139,7 +6572,9 @@
       <c r="F82" s="7">
         <v>57</v>
       </c>
-      <c r="G82" s="7"/>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8">
@@ -6158,7 +6593,9 @@
       <c r="F83" s="7">
         <v>18</v>
       </c>
-      <c r="G83" s="7"/>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8">
@@ -6189,11 +6626,15 @@
         <v>30</v>
       </c>
       <c r="C85" s="24"/>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
       <c r="E85" s="7">
         <v>98</v>
       </c>
-      <c r="F85" s="7"/>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
       <c r="G85" s="7">
         <v>2</v>
       </c>
@@ -6257,7 +6698,9 @@
       <c r="F88" s="7">
         <v>22</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8">
@@ -6270,11 +6713,15 @@
       <c r="D89" s="7">
         <v>50</v>
       </c>
-      <c r="E89" s="7"/>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
       <c r="F89" s="7">
         <v>50</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8">
@@ -6284,12 +6731,18 @@
         <v>24</v>
       </c>
       <c r="C90" s="24"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="D90" s="7">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
       <c r="F90" s="7">
         <v>100</v>
       </c>
-      <c r="G90" s="7"/>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8">
@@ -6308,7 +6761,9 @@
       <c r="F91" s="7">
         <v>89</v>
       </c>
-      <c r="G91" s="7"/>
+      <c r="G91" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8">
@@ -6321,7 +6776,9 @@
       <c r="D92" s="7">
         <v>19</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
       <c r="F92" s="7">
         <v>37</v>
       </c>
@@ -6337,8 +6794,12 @@
         <v>77</v>
       </c>
       <c r="C93" s="24"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="D93" s="7">
+        <v>0</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
       <c r="F93" s="7">
         <v>99</v>
       </c>
@@ -6354,8 +6815,12 @@
         <v>48</v>
       </c>
       <c r="C94" s="24"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0</v>
+      </c>
       <c r="F94" s="7">
         <v>50</v>
       </c>
@@ -6374,7 +6839,9 @@
       <c r="D95" s="7">
         <v>20</v>
       </c>
-      <c r="E95" s="7"/>
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
       <c r="F95" s="7">
         <v>80</v>
       </c>
@@ -6388,9 +6855,15 @@
         <v>6</v>
       </c>
       <c r="C96" s="24"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
       <c r="G96" s="7">
         <v>100</v>
       </c>
@@ -6406,9 +6879,15 @@
       <c r="D97" s="7">
         <v>100</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8">
@@ -6439,10 +6918,18 @@
         <v>0</v>
       </c>
       <c r="C99" s="24"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8">
@@ -6458,8 +6945,12 @@
       <c r="E100" s="7">
         <v>70</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8">
@@ -6475,7 +6966,9 @@
       <c r="E101" s="7">
         <v>60</v>
       </c>
-      <c r="F101" s="7"/>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
       <c r="G101" s="7">
         <v>20</v>
       </c>
@@ -6488,7 +6981,9 @@
         <v>2113</v>
       </c>
       <c r="C102" s="24"/>
-      <c r="D102" s="7"/>
+      <c r="D102" s="7">
+        <v>0</v>
+      </c>
       <c r="E102" s="7">
         <v>95</v>
       </c>
@@ -6555,8 +7050,12 @@
       <c r="E105" s="7">
         <v>67</v>
       </c>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8">
@@ -6572,8 +7071,12 @@
       <c r="E106" s="7">
         <v>92</v>
       </c>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8">
@@ -6587,7 +7090,9 @@
       <c r="E107" s="7">
         <v>93</v>
       </c>
-      <c r="F107" s="7"/>
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
       <c r="G107" s="7">
         <v>7</v>
       </c>
@@ -6609,7 +7114,9 @@
       <c r="F108" s="7">
         <v>17</v>
       </c>
-      <c r="G108" s="7"/>
+      <c r="G108" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8">
@@ -6625,8 +7132,12 @@
       <c r="E109" s="7">
         <v>67</v>
       </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8">
@@ -6636,10 +7147,18 @@
         <v>0</v>
       </c>
       <c r="C110" s="24"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="D110" s="7">
+        <v>0</v>
+      </c>
+      <c r="E110" s="7">
+        <v>0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19">
@@ -6670,10 +7189,18 @@
         <v>0</v>
       </c>
       <c r="C112" s="25"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
+      <c r="D112" s="14">
+        <v>0</v>
+      </c>
+      <c r="E112" s="31">
+        <v>0</v>
+      </c>
+      <c r="F112" s="31">
+        <v>0</v>
+      </c>
+      <c r="G112" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="19">
@@ -6686,9 +7213,13 @@
       <c r="D113" s="14">
         <v>50</v>
       </c>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33">
+      <c r="E113" s="31">
+        <v>0</v>
+      </c>
+      <c r="F113" s="31">
+        <v>0</v>
+      </c>
+      <c r="G113" s="31">
         <v>50</v>
       </c>
     </row>
@@ -6703,11 +7234,15 @@
       <c r="D114" s="14">
         <v>75</v>
       </c>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33">
+      <c r="E114" s="31">
+        <v>0</v>
+      </c>
+      <c r="F114" s="31">
         <v>25</v>
       </c>
-      <c r="G114" s="33"/>
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="19">
@@ -6723,8 +7258,12 @@
       <c r="E115" s="7">
         <v>50</v>
       </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="19">
@@ -6737,11 +7276,15 @@
       <c r="D116" s="12">
         <v>90</v>
       </c>
-      <c r="E116" s="13"/>
+      <c r="E116" s="14">
+        <v>0</v>
+      </c>
       <c r="F116" s="7">
         <v>10</v>
       </c>
-      <c r="G116" s="12"/>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="19">
@@ -6782,7 +7325,9 @@
       <c r="F118" s="7">
         <v>0</v>
       </c>
-      <c r="G118" s="12"/>
+      <c r="G118" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="19">
@@ -6795,9 +7340,15 @@
       <c r="D119" s="12">
         <v>100</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="12"/>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="19">
@@ -6813,8 +7364,12 @@
       <c r="E120" s="12">
         <v>33</v>
       </c>
-      <c r="F120" s="7"/>
-      <c r="G120" s="12"/>
+      <c r="F120" s="7">
+        <v>0</v>
+      </c>
+      <c r="G120" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="19">
@@ -6824,12 +7379,18 @@
         <v>24</v>
       </c>
       <c r="C121" s="25"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0</v>
+      </c>
       <c r="F121" s="7">
         <v>100</v>
       </c>
-      <c r="G121" s="12"/>
+      <c r="G121" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="19">
@@ -6839,12 +7400,18 @@
         <v>12</v>
       </c>
       <c r="C122" s="25"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
+      <c r="D122" s="12">
+        <v>0</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0</v>
+      </c>
       <c r="F122" s="7">
         <v>100</v>
       </c>
-      <c r="G122" s="12"/>
+      <c r="G122" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="19">
@@ -6854,10 +7421,18 @@
         <v>0</v>
       </c>
       <c r="C123" s="25"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="12"/>
+      <c r="D123" s="12">
+        <v>0</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>0</v>
+      </c>
+      <c r="G123" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="19">
@@ -6870,11 +7445,15 @@
       <c r="D124" s="12">
         <v>8</v>
       </c>
-      <c r="E124" s="12"/>
+      <c r="E124" s="12">
+        <v>0</v>
+      </c>
       <c r="F124" s="7">
         <v>92</v>
       </c>
-      <c r="G124" s="12"/>
+      <c r="G124" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="19">
@@ -6931,11 +7510,15 @@
       <c r="D127" s="12">
         <v>22</v>
       </c>
-      <c r="E127" s="12"/>
+      <c r="E127" s="12">
+        <v>0</v>
+      </c>
       <c r="F127" s="7">
         <v>78</v>
       </c>
-      <c r="G127" s="12"/>
+      <c r="G127" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="19">
@@ -6954,7 +7537,9 @@
       <c r="F128" s="7">
         <v>74</v>
       </c>
-      <c r="G128" s="12"/>
+      <c r="G128" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="19">
@@ -7102,7 +7687,9 @@
       <c r="E135" s="14">
         <v>43</v>
       </c>
-      <c r="F135" s="7"/>
+      <c r="F135" s="7">
+        <v>0</v>
+      </c>
       <c r="G135" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7144,8 +7731,12 @@
       <c r="E137" s="14">
         <v>86</v>
       </c>
-      <c r="F137" s="7"/>
-      <c r="G137" s="12"/>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
+      <c r="G137" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="19">
@@ -7183,7 +7774,9 @@
       <c r="E139" s="14">
         <v>40</v>
       </c>
-      <c r="F139" s="7"/>
+      <c r="F139" s="12">
+        <v>0</v>
+      </c>
       <c r="G139" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7203,7 +7796,9 @@
       <c r="E140" s="14">
         <v>50</v>
       </c>
-      <c r="F140" s="7"/>
+      <c r="F140" s="12">
+        <v>0</v>
+      </c>
       <c r="G140" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -7223,7 +7818,9 @@
       <c r="E141" s="14">
         <v>29</v>
       </c>
-      <c r="F141" s="7"/>
+      <c r="F141" s="12">
+        <v>0</v>
+      </c>
       <c r="G141" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -7243,7 +7840,9 @@
       <c r="E142" s="14">
         <v>56</v>
       </c>
-      <c r="F142" s="7"/>
+      <c r="F142" s="12">
+        <v>0</v>
+      </c>
       <c r="G142" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7263,7 +7862,9 @@
       <c r="E143" s="14">
         <v>61</v>
       </c>
-      <c r="F143" s="7"/>
+      <c r="F143" s="12">
+        <v>0</v>
+      </c>
       <c r="G143" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7283,8 +7884,12 @@
       <c r="E144" s="14">
         <v>14</v>
       </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="12"/>
+      <c r="F144" s="12">
+        <v>0</v>
+      </c>
+      <c r="G144" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="19">
@@ -7300,8 +7905,12 @@
       <c r="E145" s="14">
         <v>54</v>
       </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="12"/>
+      <c r="F145" s="12">
+        <v>0</v>
+      </c>
+      <c r="G145" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="19">
@@ -7317,7 +7926,9 @@
       <c r="E146" s="14">
         <v>50</v>
       </c>
-      <c r="F146" s="7"/>
+      <c r="F146" s="12">
+        <v>0</v>
+      </c>
       <c r="G146" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7337,7 +7948,9 @@
       <c r="E147" s="14">
         <v>48</v>
       </c>
-      <c r="F147" s="7"/>
+      <c r="F147" s="12">
+        <v>0</v>
+      </c>
       <c r="G147" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7357,8 +7970,12 @@
       <c r="E148" s="14">
         <v>87.5</v>
       </c>
-      <c r="F148" s="7"/>
-      <c r="G148" s="12"/>
+      <c r="F148" s="12">
+        <v>0</v>
+      </c>
+      <c r="G148" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="19">
@@ -7374,7 +7991,9 @@
       <c r="E149" s="14">
         <v>2</v>
       </c>
-      <c r="F149" s="7"/>
+      <c r="F149" s="12">
+        <v>0</v>
+      </c>
       <c r="G149" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7394,7 +8013,9 @@
       <c r="E150" s="14">
         <v>20</v>
       </c>
-      <c r="F150" s="7"/>
+      <c r="F150" s="12">
+        <v>0</v>
+      </c>
       <c r="G150" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -7411,9 +8032,15 @@
       <c r="D151" s="12">
         <v>100</v>
       </c>
-      <c r="E151" s="14"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="12"/>
+      <c r="E151" s="14">
+        <v>0</v>
+      </c>
+      <c r="F151" s="12">
+        <v>0</v>
+      </c>
+      <c r="G151" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="19">
@@ -7429,8 +8056,12 @@
       <c r="E152" s="14">
         <v>20</v>
       </c>
-      <c r="F152" s="7"/>
-      <c r="G152" s="12"/>
+      <c r="F152" s="12">
+        <v>0</v>
+      </c>
+      <c r="G152" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="19">
@@ -7440,10 +8071,18 @@
         <v>0</v>
       </c>
       <c r="C153" s="25"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="12"/>
+      <c r="D153" s="12">
+        <v>0</v>
+      </c>
+      <c r="E153" s="12">
+        <v>0</v>
+      </c>
+      <c r="F153" s="12">
+        <v>0</v>
+      </c>
+      <c r="G153" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="19">
@@ -7453,10 +8092,18 @@
         <v>0</v>
       </c>
       <c r="C154" s="25"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="12"/>
+      <c r="D154" s="12">
+        <v>0</v>
+      </c>
+      <c r="E154" s="12">
+        <v>0</v>
+      </c>
+      <c r="F154" s="12">
+        <v>0</v>
+      </c>
+      <c r="G154" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="19">
@@ -7469,9 +8116,15 @@
       <c r="D155" s="12">
         <v>100</v>
       </c>
-      <c r="E155" s="12"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="12"/>
+      <c r="E155" s="12">
+        <v>0</v>
+      </c>
+      <c r="F155" s="12">
+        <v>0</v>
+      </c>
+      <c r="G155" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="19">
@@ -7481,12 +8134,18 @@
         <v>6</v>
       </c>
       <c r="C156" s="25"/>
-      <c r="D156" s="12"/>
+      <c r="D156" s="12">
+        <v>0</v>
+      </c>
       <c r="E156" s="12">
         <v>100</v>
       </c>
-      <c r="F156" s="7"/>
-      <c r="G156" s="12"/>
+      <c r="F156" s="12">
+        <v>0</v>
+      </c>
+      <c r="G156" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="19">
@@ -7502,7 +8161,9 @@
       <c r="E157" s="12">
         <v>27</v>
       </c>
-      <c r="F157" s="7"/>
+      <c r="F157" s="12">
+        <v>0</v>
+      </c>
       <c r="G157" s="12">
         <v>6</v>
       </c>
@@ -7521,8 +8182,12 @@
       <c r="E158" s="12">
         <v>50</v>
       </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="12"/>
+      <c r="F158" s="12">
+        <v>0</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="19">
@@ -7532,10 +8197,18 @@
         <v>0</v>
       </c>
       <c r="C159" s="25"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
+      <c r="D159" s="12">
+        <v>0</v>
+      </c>
+      <c r="E159" s="12">
+        <v>0</v>
+      </c>
+      <c r="F159" s="12">
+        <v>0</v>
+      </c>
+      <c r="G159" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="19">
@@ -7548,11 +8221,17 @@
       <c r="D160" s="12">
         <v>100</v>
       </c>
-      <c r="E160" s="12"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160" s="12">
+        <v>0</v>
+      </c>
+      <c r="F160" s="12">
+        <v>0</v>
+      </c>
+      <c r="G160" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="19">
         <v>44302</v>
       </c>
@@ -7560,12 +8239,20 @@
         <v>0</v>
       </c>
       <c r="C161" s="25"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D161" s="12">
+        <v>0</v>
+      </c>
+      <c r="E161" s="12">
+        <v>0</v>
+      </c>
+      <c r="F161" s="12">
+        <v>0</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="19">
         <v>44309</v>
       </c>
@@ -7573,12 +8260,20 @@
         <v>0</v>
       </c>
       <c r="C162" s="25"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D162" s="12">
+        <v>0</v>
+      </c>
+      <c r="E162" s="12">
+        <v>0</v>
+      </c>
+      <c r="F162" s="12">
+        <v>0</v>
+      </c>
+      <c r="G162" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="19">
         <v>44316</v>
       </c>
@@ -7586,12 +8281,20 @@
         <v>0</v>
       </c>
       <c r="C163" s="25"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="43"/>
-      <c r="G163" s="43"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163" s="12">
+        <v>0</v>
+      </c>
+      <c r="E163" s="12">
+        <v>0</v>
+      </c>
+      <c r="F163" s="12">
+        <v>0</v>
+      </c>
+      <c r="G163" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="19">
         <v>44323</v>
       </c>
@@ -7599,12 +8302,20 @@
         <v>0</v>
       </c>
       <c r="C164" s="25"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="43"/>
-      <c r="G164" s="43"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="12">
+        <v>0</v>
+      </c>
+      <c r="E164" s="12">
+        <v>0</v>
+      </c>
+      <c r="F164" s="12">
+        <v>0</v>
+      </c>
+      <c r="G164" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="19">
         <v>44329</v>
       </c>
@@ -7612,12 +8323,20 @@
         <v>0</v>
       </c>
       <c r="C165" s="25"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="43"/>
-      <c r="G165" s="43"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D165" s="12">
+        <v>0</v>
+      </c>
+      <c r="E165" s="12">
+        <v>0</v>
+      </c>
+      <c r="F165" s="12">
+        <v>0</v>
+      </c>
+      <c r="G165" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="19">
         <v>44335</v>
       </c>
@@ -7628,12 +8347,17 @@
       <c r="D166" s="12">
         <v>100</v>
       </c>
-      <c r="E166" s="12"/>
-      <c r="F166" s="43"/>
-      <c r="G166" s="43"/>
-      <c r="I166" s="42"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166" s="12">
+        <v>0</v>
+      </c>
+      <c r="F166" s="12">
+        <v>0</v>
+      </c>
+      <c r="G166" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="19">
         <v>44344</v>
       </c>
@@ -7647,11 +8371,14 @@
       <c r="E167" s="12">
         <v>23</v>
       </c>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
-      <c r="I167" s="42"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F167" s="12">
+        <v>0</v>
+      </c>
+      <c r="G167" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="19" t="s">
         <v>16</v>
       </c>
@@ -7665,11 +8392,14 @@
       <c r="E168" s="12">
         <v>29</v>
       </c>
-      <c r="F168" s="43"/>
-      <c r="G168" s="43"/>
-      <c r="I168" s="42"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F168" s="12">
+        <v>0</v>
+      </c>
+      <c r="G168" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="19">
         <v>44357</v>
       </c>
@@ -7680,12 +8410,17 @@
       <c r="D169" s="12">
         <v>100</v>
       </c>
-      <c r="E169" s="12"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="I169" s="42"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169" s="12">
+        <v>0</v>
+      </c>
+      <c r="F169" s="12">
+        <v>0</v>
+      </c>
+      <c r="G169" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="19">
         <v>44364</v>
       </c>
@@ -7699,13 +8434,14 @@
       <c r="E170" s="12">
         <v>26</v>
       </c>
-      <c r="F170" s="43">
+      <c r="F170" s="7">
         <v>3</v>
       </c>
-      <c r="G170" s="43"/>
-      <c r="I170" s="42"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G170" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="19">
         <v>44371</v>
       </c>
@@ -7719,15 +8455,14 @@
       <c r="E171" s="12">
         <v>14</v>
       </c>
-      <c r="F171" s="43">
+      <c r="F171" s="7">
         <v>3</v>
       </c>
-      <c r="G171" s="43">
+      <c r="G171" s="7">
         <v>1</v>
       </c>
-      <c r="I171" s="42"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="19">
         <v>44377</v>
       </c>
@@ -7741,15 +8476,14 @@
       <c r="E172" s="12">
         <v>14</v>
       </c>
-      <c r="F172" s="43">
-        <v>2</v>
-      </c>
-      <c r="G172" s="43">
+      <c r="F172" s="7">
+        <v>2</v>
+      </c>
+      <c r="G172" s="7">
         <v>1</v>
       </c>
-      <c r="I172" s="42"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="19">
         <v>44385</v>
       </c>
@@ -7763,15 +8497,14 @@
       <c r="E173" s="12">
         <v>53</v>
       </c>
-      <c r="F173" s="43">
+      <c r="F173" s="7">
         <v>1.5</v>
       </c>
-      <c r="G173" s="43">
+      <c r="G173" s="7">
         <v>1.5</v>
       </c>
-      <c r="I173" s="42"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="19">
         <v>44390</v>
       </c>
@@ -7785,11 +8518,14 @@
       <c r="E174" s="12">
         <v>40</v>
       </c>
-      <c r="F174" s="43"/>
-      <c r="G174" s="43"/>
-      <c r="I174" s="42"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F174" s="7">
+        <v>0</v>
+      </c>
+      <c r="G174" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="19">
         <v>44399</v>
       </c>
@@ -7803,15 +8539,14 @@
       <c r="E175" s="12">
         <v>40</v>
       </c>
-      <c r="F175" s="43">
+      <c r="F175" s="7">
         <v>1</v>
       </c>
-      <c r="G175" s="43">
+      <c r="G175" s="7">
         <v>3</v>
       </c>
-      <c r="I175" s="42"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="19">
         <v>44405</v>
       </c>
@@ -7825,15 +8560,14 @@
       <c r="E176" s="12">
         <v>10</v>
       </c>
-      <c r="F176" s="43">
+      <c r="F176" s="7">
         <v>10</v>
       </c>
-      <c r="G176" s="43">
+      <c r="G176" s="7">
         <v>6</v>
       </c>
-      <c r="I176" s="42"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="19">
         <v>44413</v>
       </c>
@@ -7847,13 +8581,14 @@
       <c r="E177" s="12">
         <v>9</v>
       </c>
-      <c r="F177" s="43"/>
-      <c r="G177" s="43">
+      <c r="F177" s="12">
+        <v>0</v>
+      </c>
+      <c r="G177" s="7">
         <v>9</v>
       </c>
-      <c r="I177" s="42"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="19">
         <v>44419</v>
       </c>
@@ -7867,13 +8602,14 @@
       <c r="E178" s="12">
         <v>44</v>
       </c>
-      <c r="F178" s="43"/>
-      <c r="G178" s="43">
+      <c r="F178" s="12">
+        <v>0</v>
+      </c>
+      <c r="G178" s="7">
         <v>8</v>
       </c>
-      <c r="I178" s="42"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="19">
         <v>44426</v>
       </c>
@@ -7887,13 +8623,14 @@
       <c r="E179" s="12">
         <v>38</v>
       </c>
-      <c r="F179" s="43"/>
-      <c r="G179" s="43">
+      <c r="F179" s="12">
+        <v>0</v>
+      </c>
+      <c r="G179" s="7">
         <v>12</v>
       </c>
-      <c r="I179" s="42"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="19">
         <v>44431</v>
       </c>
@@ -7907,13 +8644,14 @@
       <c r="E180" s="12">
         <v>20</v>
       </c>
-      <c r="F180" s="43"/>
-      <c r="G180" s="43">
+      <c r="F180" s="12">
+        <v>0</v>
+      </c>
+      <c r="G180" s="7">
         <v>15</v>
       </c>
-      <c r="I180" s="42"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="19">
         <v>44441</v>
       </c>
@@ -7927,13 +8665,14 @@
       <c r="E181" s="12">
         <v>47</v>
       </c>
-      <c r="F181" s="43"/>
-      <c r="G181" s="43">
+      <c r="F181" s="12">
+        <v>0</v>
+      </c>
+      <c r="G181" s="7">
         <v>40</v>
       </c>
-      <c r="I181" s="42"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="19">
         <v>44448</v>
       </c>
@@ -7947,1788 +8686,2196 @@
       <c r="E182" s="12">
         <v>3</v>
       </c>
-      <c r="F182" s="43"/>
-      <c r="G182" s="43">
+      <c r="F182" s="12">
+        <v>0</v>
+      </c>
+      <c r="G182" s="7">
         <v>38</v>
       </c>
-      <c r="I182" s="42"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A183" s="18">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="8">
         <v>44454</v>
       </c>
-      <c r="B183" s="50" t="s">
+      <c r="B183" s="9">
+        <v>101</v>
+      </c>
+      <c r="C183" s="25"/>
+      <c r="D183" s="12">
+        <v>82</v>
+      </c>
+      <c r="E183" s="12">
+        <v>12</v>
+      </c>
+      <c r="F183" s="12">
+        <v>0</v>
+      </c>
+      <c r="G183" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="8">
+        <v>44463</v>
+      </c>
+      <c r="B184" s="9">
+        <v>286</v>
+      </c>
+      <c r="C184" s="25"/>
+      <c r="D184" s="12">
+        <v>52</v>
+      </c>
+      <c r="E184" s="12">
+        <v>42</v>
+      </c>
+      <c r="F184" s="12">
+        <v>0</v>
+      </c>
+      <c r="G184" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="8">
+        <v>44470</v>
+      </c>
+      <c r="B185" s="9">
+        <v>250</v>
+      </c>
+      <c r="C185" s="25"/>
+      <c r="D185" s="12">
+        <v>57</v>
+      </c>
+      <c r="E185" s="12">
+        <v>43</v>
+      </c>
+      <c r="F185" s="12">
+        <v>0</v>
+      </c>
+      <c r="G185" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="8">
+        <v>44474</v>
+      </c>
+      <c r="B186" s="9">
+        <v>101</v>
+      </c>
+      <c r="C186" s="25"/>
+      <c r="D186" s="12">
+        <v>71</v>
+      </c>
+      <c r="E186" s="12">
+        <v>24</v>
+      </c>
+      <c r="F186" s="12">
+        <v>0</v>
+      </c>
+      <c r="G186" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="8">
+        <v>44482</v>
+      </c>
+      <c r="B187" s="9">
+        <v>107</v>
+      </c>
+      <c r="C187" s="25"/>
+      <c r="D187" s="12">
+        <v>44</v>
+      </c>
+      <c r="E187" s="12">
+        <v>28</v>
+      </c>
+      <c r="F187" s="7">
+        <v>6</v>
+      </c>
+      <c r="G187" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="8">
+        <v>44496</v>
+      </c>
+      <c r="B188" s="9">
+        <v>458</v>
+      </c>
+      <c r="C188" s="25"/>
+      <c r="D188" s="12">
+        <v>78</v>
+      </c>
+      <c r="E188" s="12">
+        <v>9</v>
+      </c>
+      <c r="F188" s="12">
+        <v>0</v>
+      </c>
+      <c r="G188" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="8">
+        <v>44503</v>
+      </c>
+      <c r="B189" s="9">
+        <v>226</v>
+      </c>
+      <c r="C189" s="25"/>
+      <c r="D189" s="12">
+        <v>84</v>
+      </c>
+      <c r="E189" s="12">
+        <v>10</v>
+      </c>
+      <c r="F189" s="12">
+        <v>0</v>
+      </c>
+      <c r="G189" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="8">
+        <v>44512</v>
+      </c>
+      <c r="B190" s="9">
+        <v>71</v>
+      </c>
+      <c r="C190" s="25"/>
+      <c r="D190" s="12">
+        <v>50</v>
+      </c>
+      <c r="E190" s="12">
+        <v>0</v>
+      </c>
+      <c r="F190" s="12">
+        <v>0</v>
+      </c>
+      <c r="G190" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="8">
+        <v>44521</v>
+      </c>
+      <c r="B191" s="9">
+        <v>131</v>
+      </c>
+      <c r="C191" s="25"/>
+      <c r="D191" s="12">
+        <v>77</v>
+      </c>
+      <c r="E191" s="12">
         <v>18</v>
       </c>
-      <c r="C183" s="48"/>
-      <c r="D183" s="49"/>
-      <c r="I183" s="42"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A184" s="18">
-        <v>44463</v>
-      </c>
-      <c r="B184" s="21"/>
-      <c r="C184" s="52"/>
-      <c r="I184" s="42"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A185" s="18">
-        <v>44470</v>
-      </c>
-      <c r="B185" s="21"/>
-      <c r="C185" s="52"/>
-      <c r="I185" s="42"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A186" s="18">
-        <v>44474</v>
-      </c>
-      <c r="B186" s="21"/>
-      <c r="C186" s="52"/>
-      <c r="I186" s="42"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A187" s="18">
-        <v>44482</v>
-      </c>
-      <c r="B187" s="21"/>
-      <c r="C187" s="52"/>
-      <c r="I187" s="42"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A188" s="18">
-        <v>44496</v>
-      </c>
-      <c r="B188" s="21"/>
-      <c r="C188" s="52"/>
-      <c r="I188" s="42"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A189" s="18">
-        <v>44503</v>
-      </c>
-      <c r="B189" s="21"/>
-      <c r="C189" s="52"/>
-      <c r="I189" s="42"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A190" s="18">
-        <v>44512</v>
-      </c>
-      <c r="B190" s="21"/>
-      <c r="C190" s="52"/>
-      <c r="I190" s="42"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A191" s="18">
-        <v>44521</v>
-      </c>
-      <c r="B191" s="21"/>
-      <c r="C191" s="52"/>
-      <c r="I191" s="42"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A192" s="18">
+      <c r="F191" s="12">
+        <v>0</v>
+      </c>
+      <c r="G191" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="8">
         <v>44530</v>
       </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="52"/>
-      <c r="I192" s="42"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A193" s="18">
+      <c r="B192" s="9">
+        <v>286</v>
+      </c>
+      <c r="C192" s="25"/>
+      <c r="D192" s="12">
+        <v>77</v>
+      </c>
+      <c r="E192" s="12">
+        <v>19</v>
+      </c>
+      <c r="F192" s="12">
+        <v>0</v>
+      </c>
+      <c r="G192" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="8">
         <v>44545</v>
       </c>
-      <c r="B193" s="21"/>
-      <c r="C193" s="52"/>
-      <c r="I193" s="42"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A194" s="50" t="s">
+      <c r="B193" s="9">
+        <v>36</v>
+      </c>
+      <c r="C193" s="25"/>
+      <c r="D193" s="12">
+        <v>67</v>
+      </c>
+      <c r="E193" s="12">
+        <v>33</v>
+      </c>
+      <c r="F193" s="12">
+        <v>0</v>
+      </c>
+      <c r="G193" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="8">
+        <v>44573</v>
+      </c>
+      <c r="B194" s="7">
+        <v>42</v>
+      </c>
+      <c r="C194" s="25"/>
+      <c r="D194" s="12">
+        <v>57</v>
+      </c>
+      <c r="E194" s="12">
+        <v>14</v>
+      </c>
+      <c r="F194" s="12">
+        <v>0</v>
+      </c>
+      <c r="G194" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="8">
+        <v>44589</v>
+      </c>
+      <c r="B195" s="7">
+        <v>0</v>
+      </c>
+      <c r="C195" s="25"/>
+      <c r="D195" s="12">
+        <v>0</v>
+      </c>
+      <c r="E195" s="12">
+        <v>0</v>
+      </c>
+      <c r="F195" s="12">
+        <v>0</v>
+      </c>
+      <c r="G195" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="8">
+        <v>44603</v>
+      </c>
+      <c r="B196" s="7">
+        <v>30</v>
+      </c>
+      <c r="C196" s="25"/>
+      <c r="D196" s="12">
+        <v>20</v>
+      </c>
+      <c r="E196" s="12">
+        <v>60</v>
+      </c>
+      <c r="F196" s="12">
+        <v>20</v>
+      </c>
+      <c r="G196" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="8">
+        <v>44614</v>
+      </c>
+      <c r="B197" s="7">
+        <v>54</v>
+      </c>
+      <c r="C197" s="25"/>
+      <c r="D197" s="12">
+        <v>67</v>
+      </c>
+      <c r="E197" s="12">
+        <v>33</v>
+      </c>
+      <c r="F197" s="12">
+        <v>0</v>
+      </c>
+      <c r="G197" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="8">
+        <v>44625</v>
+      </c>
+      <c r="B198" s="7">
+        <v>24</v>
+      </c>
+      <c r="C198" s="25"/>
+      <c r="D198" s="12">
+        <v>100</v>
+      </c>
+      <c r="E198" s="12">
+        <v>0</v>
+      </c>
+      <c r="F198" s="12">
+        <v>0</v>
+      </c>
+      <c r="G198" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="8">
+        <v>44631</v>
+      </c>
+      <c r="B199" s="7">
+        <v>12</v>
+      </c>
+      <c r="C199" s="25"/>
+      <c r="D199" s="12">
+        <v>50</v>
+      </c>
+      <c r="E199" s="12">
+        <v>50</v>
+      </c>
+      <c r="F199" s="12">
+        <v>0</v>
+      </c>
+      <c r="G199" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="8">
+        <v>44637</v>
+      </c>
+      <c r="B200" s="7">
+        <v>89</v>
+      </c>
+      <c r="C200" s="25"/>
+      <c r="D200" s="12">
+        <v>67</v>
+      </c>
+      <c r="E200" s="12">
+        <v>27</v>
+      </c>
+      <c r="F200" s="12">
+        <v>6</v>
+      </c>
+      <c r="G200" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="8">
+        <v>44644</v>
+      </c>
+      <c r="B201" s="7">
+        <v>24</v>
+      </c>
+      <c r="C201" s="25"/>
+      <c r="D201" s="12">
+        <v>25</v>
+      </c>
+      <c r="E201" s="12">
+        <v>25</v>
+      </c>
+      <c r="F201" s="12">
+        <v>50</v>
+      </c>
+      <c r="G201" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="8">
+        <v>44653</v>
+      </c>
+      <c r="B202" s="7">
+        <v>0</v>
+      </c>
+      <c r="C202" s="25"/>
+      <c r="D202" s="12">
+        <v>0</v>
+      </c>
+      <c r="E202" s="12">
+        <v>0</v>
+      </c>
+      <c r="F202" s="12">
+        <v>0</v>
+      </c>
+      <c r="G202" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="8">
+        <v>44660</v>
+      </c>
+      <c r="B203" s="7">
+        <v>18</v>
+      </c>
+      <c r="C203" s="25"/>
+      <c r="D203" s="12">
+        <v>100</v>
+      </c>
+      <c r="E203" s="12">
+        <v>0</v>
+      </c>
+      <c r="F203" s="12">
+        <v>0</v>
+      </c>
+      <c r="G203" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="8">
+        <v>44669</v>
+      </c>
+      <c r="B204" s="7">
+        <v>0</v>
+      </c>
+      <c r="C204" s="25"/>
+      <c r="D204" s="12">
+        <v>0</v>
+      </c>
+      <c r="E204" s="12">
+        <v>0</v>
+      </c>
+      <c r="F204" s="12">
+        <v>0</v>
+      </c>
+      <c r="G204" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="8">
+        <v>44675</v>
+      </c>
+      <c r="B205" s="7">
+        <v>0</v>
+      </c>
+      <c r="C205" s="25"/>
+      <c r="D205" s="12">
+        <v>0</v>
+      </c>
+      <c r="E205" s="12">
+        <v>0</v>
+      </c>
+      <c r="F205" s="12">
+        <v>0</v>
+      </c>
+      <c r="G205" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="8">
+        <v>44682</v>
+      </c>
+      <c r="B206" s="7">
+        <v>6</v>
+      </c>
+      <c r="C206" s="25"/>
+      <c r="D206" s="12">
+        <v>0</v>
+      </c>
+      <c r="E206" s="12">
+        <v>0</v>
+      </c>
+      <c r="F206" s="12">
+        <v>0</v>
+      </c>
+      <c r="G206" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="8">
+        <v>44685</v>
+      </c>
+      <c r="B207" s="7">
+        <v>6</v>
+      </c>
+      <c r="C207" s="25"/>
+      <c r="D207" s="12">
+        <v>100</v>
+      </c>
+      <c r="E207" s="12">
+        <v>0</v>
+      </c>
+      <c r="F207" s="12">
+        <v>0</v>
+      </c>
+      <c r="G207" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="8">
+        <v>44692</v>
+      </c>
+      <c r="B208" s="7">
+        <v>0</v>
+      </c>
+      <c r="C208" s="25"/>
+      <c r="D208" s="12">
+        <v>0</v>
+      </c>
+      <c r="E208" s="12">
+        <v>0</v>
+      </c>
+      <c r="F208" s="12">
+        <v>0</v>
+      </c>
+      <c r="G208" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="8">
+        <v>44702</v>
+      </c>
+      <c r="B209" s="7">
+        <v>12</v>
+      </c>
+      <c r="C209" s="25"/>
+      <c r="D209" s="12">
+        <v>0</v>
+      </c>
+      <c r="E209" s="12">
+        <v>0</v>
+      </c>
+      <c r="F209" s="12">
+        <v>100</v>
+      </c>
+      <c r="G209" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="8">
+        <v>44708</v>
+      </c>
+      <c r="B210" s="7">
+        <v>6</v>
+      </c>
+      <c r="C210" s="25"/>
+      <c r="D210" s="12">
+        <v>0</v>
+      </c>
+      <c r="E210" s="12">
+        <v>0</v>
+      </c>
+      <c r="F210" s="12">
+        <v>100</v>
+      </c>
+      <c r="G210" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="8">
+        <v>44714</v>
+      </c>
+      <c r="B211" s="7">
+        <v>24</v>
+      </c>
+      <c r="C211" s="25"/>
+      <c r="D211" s="12">
+        <v>0</v>
+      </c>
+      <c r="E211" s="12">
+        <v>0</v>
+      </c>
+      <c r="F211" s="12">
+        <v>100</v>
+      </c>
+      <c r="G211" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="8">
+        <v>44720</v>
+      </c>
+      <c r="B212" s="7">
+        <v>30</v>
+      </c>
+      <c r="C212" s="25"/>
+      <c r="D212" s="12">
+        <v>0</v>
+      </c>
+      <c r="E212" s="12">
+        <v>0</v>
+      </c>
+      <c r="F212" s="12">
+        <v>100</v>
+      </c>
+      <c r="G212" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="8">
+        <v>44729</v>
+      </c>
+      <c r="B213" s="7">
+        <v>637</v>
+      </c>
+      <c r="C213" s="25"/>
+      <c r="D213" s="12">
+        <v>12</v>
+      </c>
+      <c r="E213" s="12">
+        <v>12</v>
+      </c>
+      <c r="F213" s="12">
+        <v>76</v>
+      </c>
+      <c r="G213" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="8">
+        <v>44735</v>
+      </c>
+      <c r="B214" s="7">
+        <v>42</v>
+      </c>
+      <c r="C214" s="25"/>
+      <c r="D214" s="12">
+        <v>43</v>
+      </c>
+      <c r="E214" s="12">
+        <v>28</v>
+      </c>
+      <c r="F214" s="12">
+        <v>29</v>
+      </c>
+      <c r="G214" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="8">
+        <v>44742</v>
+      </c>
+      <c r="B215" s="7">
+        <v>9780</v>
+      </c>
+      <c r="C215" s="25"/>
+      <c r="D215" s="12">
+        <v>13</v>
+      </c>
+      <c r="E215" s="12">
+        <v>68</v>
+      </c>
+      <c r="F215" s="12">
+        <v>14</v>
+      </c>
+      <c r="G215" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="8">
+        <v>44749</v>
+      </c>
+      <c r="B216" s="7">
+        <v>375</v>
+      </c>
+      <c r="C216" s="25"/>
+      <c r="D216" s="12">
+        <v>30</v>
+      </c>
+      <c r="E216" s="12">
+        <v>41</v>
+      </c>
+      <c r="F216" s="12">
+        <v>25</v>
+      </c>
+      <c r="G216" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="8">
+        <v>44755</v>
+      </c>
+      <c r="B217" s="7">
+        <v>155</v>
+      </c>
+      <c r="C217" s="25"/>
+      <c r="D217" s="12">
+        <v>62</v>
+      </c>
+      <c r="E217" s="12">
+        <v>15</v>
+      </c>
+      <c r="F217" s="12">
+        <v>15</v>
+      </c>
+      <c r="G217" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="8">
+        <v>44762</v>
+      </c>
+      <c r="B218" s="7">
+        <v>244</v>
+      </c>
+      <c r="C218" s="25"/>
+      <c r="D218" s="12">
+        <v>20</v>
+      </c>
+      <c r="E218" s="12">
+        <v>76</v>
+      </c>
+      <c r="F218" s="12">
+        <v>2</v>
+      </c>
+      <c r="G218" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="8">
+        <v>44768</v>
+      </c>
+      <c r="B219" s="7">
+        <v>423</v>
+      </c>
+      <c r="C219" s="25"/>
+      <c r="D219" s="12">
+        <v>34</v>
+      </c>
+      <c r="E219" s="12">
+        <v>61</v>
+      </c>
+      <c r="F219" s="12">
+        <v>4</v>
+      </c>
+      <c r="G219" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="8">
+        <v>44777</v>
+      </c>
+      <c r="B220" s="7">
+        <v>202</v>
+      </c>
+      <c r="C220" s="25"/>
+      <c r="D220" s="12">
+        <v>53</v>
+      </c>
+      <c r="E220" s="12">
+        <v>35</v>
+      </c>
+      <c r="F220" s="12">
+        <v>6</v>
+      </c>
+      <c r="G220" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="8">
+        <v>44784</v>
+      </c>
+      <c r="B221" s="7">
+        <v>184</v>
+      </c>
+      <c r="C221" s="25"/>
+      <c r="D221" s="12">
         <v>19</v>
       </c>
-      <c r="B194" s="48"/>
-      <c r="C194" s="48"/>
-      <c r="D194" s="49"/>
-      <c r="E194" s="49"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A195" s="18">
-        <v>44573</v>
-      </c>
-      <c r="B195" s="3">
+      <c r="E221" s="12">
+        <v>75</v>
+      </c>
+      <c r="F221" s="12">
+        <v>0</v>
+      </c>
+      <c r="G221" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="8">
+        <v>44790</v>
+      </c>
+      <c r="B222" s="7">
+        <v>30</v>
+      </c>
+      <c r="C222" s="25"/>
+      <c r="D222" s="12">
+        <v>20</v>
+      </c>
+      <c r="E222" s="12">
+        <v>60</v>
+      </c>
+      <c r="F222" s="12">
+        <v>20</v>
+      </c>
+      <c r="G222" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="8">
+        <v>44797</v>
+      </c>
+      <c r="B223" s="7">
+        <v>36</v>
+      </c>
+      <c r="C223" s="25"/>
+      <c r="D223" s="12">
+        <v>100</v>
+      </c>
+      <c r="E223" s="12">
+        <v>0</v>
+      </c>
+      <c r="F223" s="12">
+        <v>0</v>
+      </c>
+      <c r="G223" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="8">
+        <v>44805</v>
+      </c>
+      <c r="B224" s="7">
+        <v>875</v>
+      </c>
+      <c r="C224" s="25"/>
+      <c r="D224" s="12">
+        <v>20</v>
+      </c>
+      <c r="E224" s="12">
+        <v>71</v>
+      </c>
+      <c r="F224" s="12">
+        <v>2</v>
+      </c>
+      <c r="G224" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="8">
+        <v>44812</v>
+      </c>
+      <c r="B225" s="7">
+        <v>125</v>
+      </c>
+      <c r="C225" s="25"/>
+      <c r="D225" s="12">
+        <v>5</v>
+      </c>
+      <c r="E225" s="12">
+        <v>85</v>
+      </c>
+      <c r="F225" s="12">
+        <v>0</v>
+      </c>
+      <c r="G225" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="8">
+        <v>44820</v>
+      </c>
+      <c r="B226" s="7">
+        <v>95</v>
+      </c>
+      <c r="C226" s="25"/>
+      <c r="D226" s="12">
+        <v>44</v>
+      </c>
+      <c r="E226" s="12">
+        <v>37</v>
+      </c>
+      <c r="F226" s="12">
+        <v>0</v>
+      </c>
+      <c r="G226" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="8">
+        <v>44828</v>
+      </c>
+      <c r="B227" s="7">
+        <v>494</v>
+      </c>
+      <c r="C227" s="25"/>
+      <c r="D227" s="12">
+        <v>8</v>
+      </c>
+      <c r="E227" s="12">
+        <v>89</v>
+      </c>
+      <c r="F227" s="12">
+        <v>0</v>
+      </c>
+      <c r="G227" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="8">
+        <v>44834</v>
+      </c>
+      <c r="B228" s="7">
+        <v>512</v>
+      </c>
+      <c r="C228" s="25"/>
+      <c r="D228" s="12">
+        <v>47</v>
+      </c>
+      <c r="E228" s="12">
+        <v>48</v>
+      </c>
+      <c r="F228" s="12">
+        <v>0</v>
+      </c>
+      <c r="G228" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="8">
+        <v>44841</v>
+      </c>
+      <c r="B229" s="7">
+        <v>24</v>
+      </c>
+      <c r="C229" s="25"/>
+      <c r="D229" s="12">
+        <v>100</v>
+      </c>
+      <c r="E229" s="12">
+        <v>0</v>
+      </c>
+      <c r="F229" s="12">
+        <v>0</v>
+      </c>
+      <c r="G229" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="8">
+        <v>44848</v>
+      </c>
+      <c r="B230" s="7">
+        <v>107</v>
+      </c>
+      <c r="C230" s="25"/>
+      <c r="D230" s="12">
+        <v>78</v>
+      </c>
+      <c r="E230" s="12">
+        <v>22</v>
+      </c>
+      <c r="F230" s="12">
+        <v>0</v>
+      </c>
+      <c r="G230" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="8">
+        <v>44858</v>
+      </c>
+      <c r="B231" s="7">
+        <v>119</v>
+      </c>
+      <c r="C231" s="25"/>
+      <c r="D231" s="12">
+        <v>55</v>
+      </c>
+      <c r="E231" s="12">
+        <v>35</v>
+      </c>
+      <c r="F231" s="12">
+        <v>0</v>
+      </c>
+      <c r="G231" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="8">
+        <v>44862</v>
+      </c>
+      <c r="B232" s="7">
+        <v>304</v>
+      </c>
+      <c r="C232" s="25"/>
+      <c r="D232" s="12">
+        <v>21</v>
+      </c>
+      <c r="E232" s="12">
+        <v>75</v>
+      </c>
+      <c r="F232" s="12">
+        <v>2</v>
+      </c>
+      <c r="G232" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="8">
+        <v>44869</v>
+      </c>
+      <c r="B233" s="7">
+        <v>143</v>
+      </c>
+      <c r="C233" s="25"/>
+      <c r="D233" s="12">
+        <v>33</v>
+      </c>
+      <c r="E233" s="12">
+        <v>63</v>
+      </c>
+      <c r="F233" s="12">
+        <v>0</v>
+      </c>
+      <c r="G233" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="8">
+        <v>44883</v>
+      </c>
+      <c r="B234" s="7">
+        <v>48</v>
+      </c>
+      <c r="C234" s="25"/>
+      <c r="D234" s="12">
+        <v>38</v>
+      </c>
+      <c r="E234" s="12">
+        <v>62</v>
+      </c>
+      <c r="F234" s="12">
+        <v>0</v>
+      </c>
+      <c r="G234" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="8">
+        <v>44897</v>
+      </c>
+      <c r="B235" s="7">
+        <v>77</v>
+      </c>
+      <c r="C235" s="25"/>
+      <c r="D235" s="12">
+        <v>69</v>
+      </c>
+      <c r="E235" s="12">
+        <v>8</v>
+      </c>
+      <c r="F235" s="12">
+        <v>0</v>
+      </c>
+      <c r="G235" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="8">
+        <v>44911</v>
+      </c>
+      <c r="B236" s="7">
+        <v>12</v>
+      </c>
+      <c r="C236" s="25"/>
+      <c r="D236" s="12">
+        <v>50</v>
+      </c>
+      <c r="E236" s="12">
+        <v>50</v>
+      </c>
+      <c r="F236" s="12">
+        <v>0</v>
+      </c>
+      <c r="G236" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="8">
+        <v>44926</v>
+      </c>
+      <c r="B237" s="7">
+        <v>12</v>
+      </c>
+      <c r="C237" s="25"/>
+      <c r="D237" s="12">
+        <v>100</v>
+      </c>
+      <c r="E237" s="12">
+        <v>0</v>
+      </c>
+      <c r="F237" s="12">
+        <v>0</v>
+      </c>
+      <c r="G237" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="8">
+        <v>44939</v>
+      </c>
+      <c r="B238" s="7">
+        <v>12</v>
+      </c>
+      <c r="C238" s="25"/>
+      <c r="D238" s="12">
+        <v>100</v>
+      </c>
+      <c r="E238" s="12">
+        <v>0</v>
+      </c>
+      <c r="F238" s="12">
+        <v>0</v>
+      </c>
+      <c r="G238" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="8">
+        <v>44953</v>
+      </c>
+      <c r="B239" s="7">
+        <v>0</v>
+      </c>
+      <c r="C239" s="25"/>
+      <c r="D239" s="12">
+        <v>0</v>
+      </c>
+      <c r="E239" s="12">
+        <v>0</v>
+      </c>
+      <c r="F239" s="12">
+        <v>0</v>
+      </c>
+      <c r="G239" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="8">
+        <v>44967</v>
+      </c>
+      <c r="B240" s="7">
+        <v>12</v>
+      </c>
+      <c r="C240" s="25"/>
+      <c r="D240" s="12">
+        <v>50</v>
+      </c>
+      <c r="E240" s="12">
+        <v>50</v>
+      </c>
+      <c r="F240" s="12">
+        <v>0</v>
+      </c>
+      <c r="G240" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="8">
+        <v>44980</v>
+      </c>
+      <c r="B241" s="7">
+        <v>0</v>
+      </c>
+      <c r="C241" s="25"/>
+      <c r="D241" s="12">
+        <v>0</v>
+      </c>
+      <c r="E241" s="12">
+        <v>0</v>
+      </c>
+      <c r="F241" s="12">
+        <v>0</v>
+      </c>
+      <c r="G241" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="8">
+        <v>44987</v>
+      </c>
+      <c r="B242" s="7">
+        <v>6</v>
+      </c>
+      <c r="C242" s="25"/>
+      <c r="D242" s="12">
+        <v>0</v>
+      </c>
+      <c r="E242" s="12">
+        <v>100</v>
+      </c>
+      <c r="F242" s="12">
+        <v>0</v>
+      </c>
+      <c r="G242" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="8">
+        <v>44994</v>
+      </c>
+      <c r="B243" s="7">
+        <v>0</v>
+      </c>
+      <c r="C243" s="25"/>
+      <c r="D243" s="12">
+        <v>0</v>
+      </c>
+      <c r="E243" s="12">
+        <v>0</v>
+      </c>
+      <c r="F243" s="12">
+        <v>0</v>
+      </c>
+      <c r="G243" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="8">
+        <v>45001</v>
+      </c>
+      <c r="B244" s="7">
+        <v>6</v>
+      </c>
+      <c r="C244" s="25"/>
+      <c r="D244" s="12">
+        <v>100</v>
+      </c>
+      <c r="E244" s="12">
+        <v>0</v>
+      </c>
+      <c r="F244" s="12">
+        <v>0</v>
+      </c>
+      <c r="G244" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="8">
+        <v>45009</v>
+      </c>
+      <c r="B245" s="7">
+        <v>0</v>
+      </c>
+      <c r="C245" s="25"/>
+      <c r="D245" s="12">
+        <v>0</v>
+      </c>
+      <c r="E245" s="12">
+        <v>0</v>
+      </c>
+      <c r="F245" s="12">
+        <v>0</v>
+      </c>
+      <c r="G245" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="8">
+        <v>45015</v>
+      </c>
+      <c r="B246" s="7">
+        <v>0</v>
+      </c>
+      <c r="C246" s="25"/>
+      <c r="D246" s="12">
+        <v>0</v>
+      </c>
+      <c r="E246" s="12">
+        <v>0</v>
+      </c>
+      <c r="F246" s="12">
+        <v>0</v>
+      </c>
+      <c r="G246" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="8">
+        <v>45023</v>
+      </c>
+      <c r="B247" s="7">
+        <v>0</v>
+      </c>
+      <c r="C247" s="25"/>
+      <c r="D247" s="12">
+        <v>0</v>
+      </c>
+      <c r="E247" s="12">
+        <v>0</v>
+      </c>
+      <c r="F247" s="12">
+        <v>0</v>
+      </c>
+      <c r="G247" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="8">
+        <v>45029</v>
+      </c>
+      <c r="B248" s="7">
+        <v>12</v>
+      </c>
+      <c r="C248" s="25"/>
+      <c r="D248" s="12">
+        <v>50</v>
+      </c>
+      <c r="E248" s="12">
+        <v>0</v>
+      </c>
+      <c r="F248" s="12">
+        <v>0</v>
+      </c>
+      <c r="G248" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="8">
+        <v>45037</v>
+      </c>
+      <c r="B249" s="7">
+        <v>0</v>
+      </c>
+      <c r="C249" s="25"/>
+      <c r="D249" s="12">
+        <v>0</v>
+      </c>
+      <c r="E249" s="12">
+        <v>0</v>
+      </c>
+      <c r="F249" s="12">
+        <v>0</v>
+      </c>
+      <c r="G249" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="8">
+        <v>45044</v>
+      </c>
+      <c r="B250" s="7">
+        <v>0</v>
+      </c>
+      <c r="C250" s="25"/>
+      <c r="D250" s="12">
+        <v>0</v>
+      </c>
+      <c r="E250" s="12">
+        <v>0</v>
+      </c>
+      <c r="F250" s="12">
+        <v>0</v>
+      </c>
+      <c r="G250" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="8">
+        <v>45050</v>
+      </c>
+      <c r="B251" s="7">
+        <v>0</v>
+      </c>
+      <c r="C251" s="25"/>
+      <c r="D251" s="12">
+        <v>0</v>
+      </c>
+      <c r="E251" s="12">
+        <v>0</v>
+      </c>
+      <c r="F251" s="12">
+        <v>0</v>
+      </c>
+      <c r="G251" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="8">
+        <v>45056</v>
+      </c>
+      <c r="B252" s="7">
+        <v>0</v>
+      </c>
+      <c r="C252" s="25"/>
+      <c r="D252" s="12">
+        <v>0</v>
+      </c>
+      <c r="E252" s="12">
+        <v>0</v>
+      </c>
+      <c r="F252" s="12">
+        <v>0</v>
+      </c>
+      <c r="G252" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="8">
+        <v>45063</v>
+      </c>
+      <c r="B253" s="7">
+        <v>0</v>
+      </c>
+      <c r="C253" s="25"/>
+      <c r="D253" s="12">
+        <v>0</v>
+      </c>
+      <c r="E253" s="12">
+        <v>0</v>
+      </c>
+      <c r="F253" s="12">
+        <v>0</v>
+      </c>
+      <c r="G253" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="8">
+        <v>45071</v>
+      </c>
+      <c r="B254" s="7">
+        <v>54</v>
+      </c>
+      <c r="C254" s="25"/>
+      <c r="D254" s="12">
+        <v>11</v>
+      </c>
+      <c r="E254" s="12">
+        <v>0</v>
+      </c>
+      <c r="F254" s="12">
+        <v>67</v>
+      </c>
+      <c r="G254" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="8">
+        <v>45079</v>
+      </c>
+      <c r="B255" s="7">
+        <v>77</v>
+      </c>
+      <c r="C255" s="25"/>
+      <c r="D255" s="12">
+        <v>46</v>
+      </c>
+      <c r="E255" s="12">
+        <v>0</v>
+      </c>
+      <c r="F255" s="12">
+        <v>38</v>
+      </c>
+      <c r="G255" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="8">
+        <v>45087</v>
+      </c>
+      <c r="B256" s="7">
+        <v>6</v>
+      </c>
+      <c r="C256" s="25"/>
+      <c r="D256" s="12">
+        <v>0</v>
+      </c>
+      <c r="E256" s="12">
+        <v>0</v>
+      </c>
+      <c r="F256" s="12">
+        <v>100</v>
+      </c>
+      <c r="G256" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="8">
+        <v>45091</v>
+      </c>
+      <c r="B257" s="7">
+        <v>24</v>
+      </c>
+      <c r="C257" s="25"/>
+      <c r="D257" s="12">
+        <v>75</v>
+      </c>
+      <c r="E257" s="12">
+        <v>0</v>
+      </c>
+      <c r="F257" s="12">
+        <v>25</v>
+      </c>
+      <c r="G257" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="8">
+        <v>45099</v>
+      </c>
+      <c r="B258" s="7">
+        <v>202</v>
+      </c>
+      <c r="C258" s="25"/>
+      <c r="D258" s="12">
+        <v>18</v>
+      </c>
+      <c r="E258" s="12">
+        <v>47</v>
+      </c>
+      <c r="F258" s="12">
+        <v>32</v>
+      </c>
+      <c r="G258" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="8">
+        <v>45106</v>
+      </c>
+      <c r="B259" s="7">
+        <v>6</v>
+      </c>
+      <c r="C259" s="25"/>
+      <c r="D259" s="12">
+        <v>100</v>
+      </c>
+      <c r="E259" s="12">
+        <v>0</v>
+      </c>
+      <c r="F259" s="12">
+        <v>0</v>
+      </c>
+      <c r="G259" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="8">
+        <v>45113</v>
+      </c>
+      <c r="B260" s="7">
+        <v>530</v>
+      </c>
+      <c r="C260" s="25"/>
+      <c r="D260" s="12">
+        <v>29</v>
+      </c>
+      <c r="E260" s="12">
+        <v>32</v>
+      </c>
+      <c r="F260" s="12">
+        <v>39</v>
+      </c>
+      <c r="G260" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="8">
+        <v>45120</v>
+      </c>
+      <c r="B261" s="7">
+        <v>107</v>
+      </c>
+      <c r="C261" s="25"/>
+      <c r="D261" s="12">
+        <v>45</v>
+      </c>
+      <c r="E261" s="12">
+        <v>22</v>
+      </c>
+      <c r="F261" s="12">
+        <v>0</v>
+      </c>
+      <c r="G261" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="8">
+        <v>45127</v>
+      </c>
+      <c r="B262" s="7">
+        <v>1393</v>
+      </c>
+      <c r="C262" s="25"/>
+      <c r="D262" s="12">
+        <v>22</v>
+      </c>
+      <c r="E262" s="12">
+        <v>51</v>
+      </c>
+      <c r="F262" s="12">
+        <v>23</v>
+      </c>
+      <c r="G262" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" s="8">
+        <v>45134</v>
+      </c>
+      <c r="B263" s="7">
+        <v>1667</v>
+      </c>
+      <c r="C263" s="25"/>
+      <c r="D263" s="12">
+        <v>19</v>
+      </c>
+      <c r="E263" s="12">
+        <v>52</v>
+      </c>
+      <c r="F263" s="12">
+        <v>22</v>
+      </c>
+      <c r="G263" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" s="8">
+        <v>45141</v>
+      </c>
+      <c r="B264" s="7">
+        <v>482</v>
+      </c>
+      <c r="C264" s="25"/>
+      <c r="D264" s="12">
+        <v>47</v>
+      </c>
+      <c r="E264" s="12">
+        <v>8</v>
+      </c>
+      <c r="F264" s="12">
+        <v>38</v>
+      </c>
+      <c r="G264" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="8">
+        <v>45148</v>
+      </c>
+      <c r="B265" s="7">
+        <v>387</v>
+      </c>
+      <c r="C265" s="25"/>
+      <c r="D265" s="12">
         <v>42</v>
       </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="10">
-        <v>57</v>
-      </c>
-      <c r="E195" s="10">
-        <v>14</v>
-      </c>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10">
+      <c r="E265" s="12">
+        <v>18</v>
+      </c>
+      <c r="F265" s="12">
         <v>29</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A196" s="18">
-        <v>44589</v>
-      </c>
-      <c r="C196" s="21"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A197" s="18">
-        <v>44603</v>
-      </c>
-      <c r="B197" s="3">
+      <c r="G265" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="8">
+        <v>45155</v>
+      </c>
+      <c r="B266" s="7">
+        <v>905</v>
+      </c>
+      <c r="C266" s="25"/>
+      <c r="D266" s="12">
+        <v>26</v>
+      </c>
+      <c r="E266" s="12">
+        <v>49</v>
+      </c>
+      <c r="F266" s="12">
+        <v>20</v>
+      </c>
+      <c r="G266" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" s="8">
+        <v>45162</v>
+      </c>
+      <c r="B267" s="7">
+        <v>339</v>
+      </c>
+      <c r="C267" s="25"/>
+      <c r="D267" s="12">
+        <v>21</v>
+      </c>
+      <c r="E267" s="12">
+        <v>61</v>
+      </c>
+      <c r="F267" s="12">
+        <v>16</v>
+      </c>
+      <c r="G267" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B268" s="7">
+        <v>137</v>
+      </c>
+      <c r="C268" s="25"/>
+      <c r="D268" s="12">
+        <v>17</v>
+      </c>
+      <c r="E268" s="12">
+        <v>39</v>
+      </c>
+      <c r="F268" s="12">
+        <v>39</v>
+      </c>
+      <c r="G268" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="8">
+        <v>45176</v>
+      </c>
+      <c r="B269" s="7">
+        <v>24</v>
+      </c>
+      <c r="C269" s="25"/>
+      <c r="D269" s="12">
+        <v>50</v>
+      </c>
+      <c r="E269" s="12">
+        <v>50</v>
+      </c>
+      <c r="F269" s="12">
+        <v>0</v>
+      </c>
+      <c r="G269" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="8">
+        <v>45183</v>
+      </c>
+      <c r="B270" s="7">
+        <v>54</v>
+      </c>
+      <c r="C270" s="25"/>
+      <c r="D270" s="12">
+        <v>22</v>
+      </c>
+      <c r="E270" s="12">
+        <v>33</v>
+      </c>
+      <c r="F270" s="12">
+        <v>45</v>
+      </c>
+      <c r="G270" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="8">
+        <v>45190</v>
+      </c>
+      <c r="B271" s="7">
+        <v>268</v>
+      </c>
+      <c r="C271" s="25"/>
+      <c r="D271" s="12">
+        <v>83</v>
+      </c>
+      <c r="E271" s="12">
+        <v>11</v>
+      </c>
+      <c r="F271" s="12">
+        <v>4</v>
+      </c>
+      <c r="G271" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="8">
+        <v>45197</v>
+      </c>
+      <c r="B272" s="7">
+        <v>77</v>
+      </c>
+      <c r="C272" s="25"/>
+      <c r="D272" s="12">
+        <v>62</v>
+      </c>
+      <c r="E272" s="12">
+        <v>8</v>
+      </c>
+      <c r="F272" s="12">
+        <v>23</v>
+      </c>
+      <c r="G272" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" s="8">
+        <v>45203</v>
+      </c>
+      <c r="B273" s="7">
+        <v>48</v>
+      </c>
+      <c r="C273" s="25"/>
+      <c r="D273" s="12">
+        <v>50</v>
+      </c>
+      <c r="E273" s="12">
+        <v>50</v>
+      </c>
+      <c r="F273" s="12">
+        <v>0</v>
+      </c>
+      <c r="G273" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" s="8">
+        <v>45211</v>
+      </c>
+      <c r="B274" s="7">
+        <v>661</v>
+      </c>
+      <c r="C274" s="25"/>
+      <c r="D274" s="12">
+        <v>41</v>
+      </c>
+      <c r="E274" s="12">
+        <v>41</v>
+      </c>
+      <c r="F274" s="12">
+        <v>3</v>
+      </c>
+      <c r="G274" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" s="8">
+        <v>45219</v>
+      </c>
+      <c r="B275" s="7">
+        <v>762</v>
+      </c>
+      <c r="C275" s="25"/>
+      <c r="D275" s="12">
+        <v>66</v>
+      </c>
+      <c r="E275" s="12">
         <v>30</v>
       </c>
-      <c r="C197" s="21"/>
-      <c r="D197" s="10">
-        <v>20</v>
-      </c>
-      <c r="E197" s="10">
-        <v>60</v>
-      </c>
-      <c r="F197" s="10">
-        <v>20</v>
-      </c>
-      <c r="G197" s="10"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A198" s="18">
-        <v>44614</v>
-      </c>
-      <c r="B198" s="3">
-        <v>54</v>
-      </c>
-      <c r="C198" s="21"/>
-      <c r="D198" s="10">
+      <c r="F275" s="12">
+        <v>1</v>
+      </c>
+      <c r="G275" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" s="8">
+        <v>45227</v>
+      </c>
+      <c r="B276" s="12">
+        <v>4435</v>
+      </c>
+      <c r="C276" s="25"/>
+      <c r="D276" s="12">
+        <v>38</v>
+      </c>
+      <c r="E276" s="12">
+        <v>55</v>
+      </c>
+      <c r="F276" s="12">
+        <v>6</v>
+      </c>
+      <c r="G276" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" s="8">
+        <v>45233</v>
+      </c>
+      <c r="B277" s="7">
+        <v>48</v>
+      </c>
+      <c r="C277" s="25"/>
+      <c r="D277" s="12">
+        <v>75</v>
+      </c>
+      <c r="E277" s="12">
+        <v>25</v>
+      </c>
+      <c r="F277" s="12">
+        <v>0</v>
+      </c>
+      <c r="G277" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" s="8">
+        <v>45238</v>
+      </c>
+      <c r="B278" s="7">
+        <v>5024</v>
+      </c>
+      <c r="C278" s="25"/>
+      <c r="D278" s="12">
+        <v>39</v>
+      </c>
+      <c r="E278" s="12">
+        <v>58</v>
+      </c>
+      <c r="F278" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G278" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" s="19">
+        <v>45246</v>
+      </c>
+      <c r="B279" s="9">
+        <v>125</v>
+      </c>
+      <c r="C279" s="25"/>
+      <c r="D279" s="16">
+        <v>38</v>
+      </c>
+      <c r="E279" s="16">
+        <v>62</v>
+      </c>
+      <c r="F279" s="7">
+        <v>0</v>
+      </c>
+      <c r="G279" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" s="19">
+        <v>45256</v>
+      </c>
+      <c r="B280" s="9">
+        <v>18</v>
+      </c>
+      <c r="C280" s="25"/>
+      <c r="D280" s="16">
         <v>67</v>
       </c>
-      <c r="E198" s="10">
+      <c r="E280" s="16">
+        <v>0</v>
+      </c>
+      <c r="F280" s="7">
+        <v>0</v>
+      </c>
+      <c r="G280" s="7">
         <v>33</v>
       </c>
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A199" s="18">
-        <v>44625</v>
-      </c>
-      <c r="B199" s="3">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="19">
+        <v>45268</v>
+      </c>
+      <c r="B281" s="9">
+        <v>577</v>
+      </c>
+      <c r="C281" s="25"/>
+      <c r="D281" s="16">
+        <v>32</v>
+      </c>
+      <c r="E281" s="16">
+        <v>56</v>
+      </c>
+      <c r="F281" s="12">
+        <v>12</v>
+      </c>
+      <c r="G281" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="19">
+        <v>45282</v>
+      </c>
+      <c r="B282" s="9">
+        <v>470</v>
+      </c>
+      <c r="C282" s="25"/>
+      <c r="D282" s="16">
+        <v>13</v>
+      </c>
+      <c r="E282" s="16">
+        <v>73</v>
+      </c>
+      <c r="F282" s="12">
+        <v>13</v>
+      </c>
+      <c r="G282" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" s="19">
+        <v>45296</v>
+      </c>
+      <c r="B283" s="9">
         <v>24</v>
       </c>
-      <c r="C199" s="21"/>
-      <c r="D199" s="10">
+      <c r="C283" s="25"/>
+      <c r="D283" s="16">
         <v>100</v>
       </c>
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A200" s="18">
-        <v>44631</v>
-      </c>
-      <c r="B200" s="3">
-        <v>12</v>
-      </c>
-      <c r="C200" s="21"/>
-      <c r="D200" s="10">
+      <c r="E283" s="16">
+        <v>0</v>
+      </c>
+      <c r="F283" s="7">
+        <v>0</v>
+      </c>
+      <c r="G283" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" s="19">
+        <v>45311</v>
+      </c>
+      <c r="B284" s="9">
+        <v>6</v>
+      </c>
+      <c r="C284" s="25"/>
+      <c r="D284" s="16">
+        <v>0</v>
+      </c>
+      <c r="E284" s="16">
+        <v>100</v>
+      </c>
+      <c r="F284" s="7">
+        <v>0</v>
+      </c>
+      <c r="G284" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" s="19">
+        <v>45324</v>
+      </c>
+      <c r="B285" s="9">
+        <v>24</v>
+      </c>
+      <c r="C285" s="25"/>
+      <c r="D285" s="16">
+        <v>25</v>
+      </c>
+      <c r="E285" s="16">
         <v>50</v>
       </c>
-      <c r="E200" s="10">
-        <v>50</v>
-      </c>
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A201" s="18">
-        <v>44637</v>
-      </c>
-      <c r="B201" s="3">
-        <v>89</v>
-      </c>
-      <c r="C201" s="21"/>
-      <c r="D201" s="10">
-        <v>67</v>
-      </c>
-      <c r="E201" s="10">
-        <v>27</v>
-      </c>
-      <c r="F201" s="10">
-        <v>6</v>
-      </c>
-      <c r="G201" s="10"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A202" s="18">
-        <v>44644</v>
-      </c>
-      <c r="B202" s="3">
-        <v>24</v>
-      </c>
-      <c r="C202" s="21"/>
-      <c r="D202" s="10">
+      <c r="F285" s="7">
         <v>25</v>
       </c>
-      <c r="E202" s="10">
+      <c r="G285" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" s="19">
+        <v>45336</v>
+      </c>
+      <c r="B286" s="9">
+        <v>48</v>
+      </c>
+      <c r="C286" s="25"/>
+      <c r="D286" s="16">
+        <v>38</v>
+      </c>
+      <c r="E286" s="16">
         <v>25</v>
       </c>
-      <c r="F202" s="10">
-        <v>50</v>
-      </c>
-      <c r="G202" s="10"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A203" s="18">
-        <v>44653</v>
-      </c>
-      <c r="C203" s="21"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A204" s="18">
-        <v>44660</v>
-      </c>
-      <c r="B204" s="3">
-        <v>18</v>
-      </c>
-      <c r="C204" s="21"/>
-      <c r="D204" s="10">
-        <v>100</v>
-      </c>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A205" s="18">
-        <v>44669</v>
-      </c>
-      <c r="C205" s="21"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A206" s="18">
-        <v>44675</v>
-      </c>
-      <c r="C206" s="21"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A207" s="18">
-        <v>44682</v>
-      </c>
-      <c r="B207" s="3">
-        <v>6</v>
-      </c>
-      <c r="C207" s="21"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A208" s="18">
-        <v>44685</v>
-      </c>
-      <c r="B208" s="3">
-        <v>6</v>
-      </c>
-      <c r="C208" s="21"/>
-      <c r="D208" s="10">
-        <v>100</v>
-      </c>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A209" s="18">
-        <v>44692</v>
-      </c>
-      <c r="C209" s="21"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A210" s="18">
-        <v>44702</v>
-      </c>
-      <c r="B210" s="3">
-        <v>12</v>
-      </c>
-      <c r="C210" s="21"/>
-      <c r="F210" s="10">
-        <v>100</v>
-      </c>
-      <c r="G210" s="10"/>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A211" s="18">
-        <v>44708</v>
-      </c>
-      <c r="B211" s="3">
-        <v>6</v>
-      </c>
-      <c r="C211" s="21"/>
-      <c r="F211" s="10">
-        <v>100</v>
-      </c>
-      <c r="G211" s="10"/>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A212" s="18">
-        <v>44714</v>
-      </c>
-      <c r="B212" s="3">
-        <v>24</v>
-      </c>
-      <c r="C212" s="21"/>
-      <c r="F212" s="10">
-        <v>100</v>
-      </c>
-      <c r="G212" s="10"/>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A213" s="18">
-        <v>44720</v>
-      </c>
-      <c r="B213" s="3">
-        <v>30</v>
-      </c>
-      <c r="C213" s="21"/>
-      <c r="F213" s="10">
-        <v>100</v>
-      </c>
-      <c r="G213" s="10"/>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A214" s="18">
-        <v>44729</v>
-      </c>
-      <c r="B214" s="3">
-        <v>637</v>
-      </c>
-      <c r="C214" s="21"/>
-      <c r="D214" s="10">
-        <v>12</v>
-      </c>
-      <c r="E214" s="10">
-        <v>12</v>
-      </c>
-      <c r="F214" s="10">
-        <v>76</v>
-      </c>
-      <c r="G214" s="10"/>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A215" s="18">
-        <v>44735</v>
-      </c>
-      <c r="B215" s="3">
-        <v>42</v>
-      </c>
-      <c r="C215" s="21"/>
-      <c r="D215" s="10">
-        <v>43</v>
-      </c>
-      <c r="E215" s="10">
-        <v>28</v>
-      </c>
-      <c r="F215" s="10">
-        <v>29</v>
-      </c>
-      <c r="G215" s="10"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A216" s="18">
-        <v>44742</v>
-      </c>
-      <c r="B216" s="3">
-        <v>9780</v>
-      </c>
-      <c r="C216" s="21"/>
-      <c r="D216" s="10">
-        <v>13</v>
-      </c>
-      <c r="E216" s="10">
-        <v>68</v>
-      </c>
-      <c r="F216" s="10">
-        <v>14</v>
-      </c>
-      <c r="G216" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A217" s="18">
-        <v>44749</v>
-      </c>
-      <c r="B217" s="3">
-        <v>375</v>
-      </c>
-      <c r="C217" s="21"/>
-      <c r="D217" s="10">
-        <v>30</v>
-      </c>
-      <c r="E217" s="10">
-        <v>41</v>
-      </c>
-      <c r="F217" s="10">
-        <v>25</v>
-      </c>
-      <c r="G217" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A218" s="18">
-        <v>44755</v>
-      </c>
-      <c r="B218" s="3">
-        <v>155</v>
-      </c>
-      <c r="C218" s="21"/>
-      <c r="D218" s="10">
-        <v>62</v>
-      </c>
-      <c r="E218" s="10">
-        <v>15</v>
-      </c>
-      <c r="F218" s="10">
-        <v>15</v>
-      </c>
-      <c r="G218" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A219" s="18">
-        <v>44762</v>
-      </c>
-      <c r="B219" s="3">
-        <v>244</v>
-      </c>
-      <c r="C219" s="21"/>
-      <c r="D219" s="10">
-        <v>20</v>
-      </c>
-      <c r="E219" s="10">
-        <v>76</v>
-      </c>
-      <c r="F219" s="10">
-        <v>2</v>
-      </c>
-      <c r="G219" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A220" s="18">
-        <v>44768</v>
-      </c>
-      <c r="B220" s="3">
-        <v>423</v>
-      </c>
-      <c r="C220" s="21"/>
-      <c r="D220" s="10">
-        <v>34</v>
-      </c>
-      <c r="E220" s="10">
-        <v>61</v>
-      </c>
-      <c r="F220" s="10">
-        <v>4</v>
-      </c>
-      <c r="G220" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A221" s="18">
-        <v>44777</v>
-      </c>
-      <c r="B221" s="3">
-        <v>202</v>
-      </c>
-      <c r="C221" s="21"/>
-      <c r="D221" s="10">
-        <v>53</v>
-      </c>
-      <c r="E221" s="10">
-        <v>35</v>
-      </c>
-      <c r="F221" s="10">
-        <v>6</v>
-      </c>
-      <c r="G221" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A222" s="18">
-        <v>44784</v>
-      </c>
-      <c r="B222" s="3">
-        <v>184</v>
-      </c>
-      <c r="C222" s="21"/>
-      <c r="D222" s="10">
-        <v>19</v>
-      </c>
-      <c r="E222" s="10">
-        <v>75</v>
-      </c>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A223" s="18">
-        <v>44790</v>
-      </c>
-      <c r="B223" s="3">
-        <v>30</v>
-      </c>
-      <c r="C223" s="21"/>
-      <c r="D223" s="10">
-        <v>20</v>
-      </c>
-      <c r="E223" s="10">
-        <v>60</v>
-      </c>
-      <c r="F223" s="10">
-        <v>20</v>
-      </c>
-      <c r="G223" s="10"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A224" s="18">
-        <v>44797</v>
-      </c>
-      <c r="B224" s="3">
-        <v>36</v>
-      </c>
-      <c r="C224" s="21"/>
-      <c r="D224" s="10">
-        <v>100</v>
-      </c>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A225" s="18">
-        <v>44805</v>
-      </c>
-      <c r="B225" s="3">
-        <v>875</v>
-      </c>
-      <c r="C225" s="21"/>
-      <c r="D225" s="10">
-        <v>20</v>
-      </c>
-      <c r="E225" s="10">
-        <v>71</v>
-      </c>
-      <c r="F225" s="10">
-        <v>2</v>
-      </c>
-      <c r="G225" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A226" s="18">
-        <v>44812</v>
-      </c>
-      <c r="B226" s="3">
-        <v>125</v>
-      </c>
-      <c r="C226" s="21"/>
-      <c r="D226" s="10">
-        <v>5</v>
-      </c>
-      <c r="E226" s="10">
-        <v>85</v>
-      </c>
-      <c r="F226" s="10">
-        <v>0</v>
-      </c>
-      <c r="G226" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A227" s="18">
-        <v>44820</v>
-      </c>
-      <c r="B227" s="3">
-        <v>95</v>
-      </c>
-      <c r="C227" s="21"/>
-      <c r="D227" s="10">
-        <v>44</v>
-      </c>
-      <c r="E227" s="10">
+      <c r="F286" s="7">
+        <v>0</v>
+      </c>
+      <c r="G286" s="7">
         <v>37</v>
       </c>
-      <c r="F227" s="10">
-        <v>0</v>
-      </c>
-      <c r="G227" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A228" s="18">
-        <v>44828</v>
-      </c>
-      <c r="B228" s="3">
-        <v>494</v>
-      </c>
-      <c r="C228" s="21"/>
-      <c r="D228" s="10">
-        <v>8</v>
-      </c>
-      <c r="E228" s="10">
-        <v>89</v>
-      </c>
-      <c r="F228" s="10">
-        <v>0</v>
-      </c>
-      <c r="G228" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A229" s="18">
-        <v>44834</v>
-      </c>
-      <c r="B229" s="3">
-        <v>512</v>
-      </c>
-      <c r="C229" s="21"/>
-      <c r="D229" s="10">
-        <v>47</v>
-      </c>
-      <c r="E229" s="10">
-        <v>48</v>
-      </c>
-      <c r="F229" s="10">
-        <v>0</v>
-      </c>
-      <c r="G229" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A230" s="18">
-        <v>44841</v>
-      </c>
-      <c r="B230" s="3">
-        <v>24</v>
-      </c>
-      <c r="C230" s="21"/>
-      <c r="D230" s="10">
-        <v>100</v>
-      </c>
-      <c r="E230" s="10">
-        <v>0</v>
-      </c>
-      <c r="F230" s="10">
-        <v>0</v>
-      </c>
-      <c r="G230" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A231" s="18">
-        <v>44848</v>
-      </c>
-      <c r="B231" s="3">
-        <v>107</v>
-      </c>
-      <c r="C231" s="21"/>
-      <c r="D231" s="10">
-        <v>78</v>
-      </c>
-      <c r="E231" s="10">
-        <v>22</v>
-      </c>
-      <c r="F231" s="10">
-        <v>0</v>
-      </c>
-      <c r="G231" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A232" s="18">
-        <v>44858</v>
-      </c>
-      <c r="B232" s="3">
-        <v>119</v>
-      </c>
-      <c r="C232" s="21"/>
-      <c r="D232" s="10">
-        <v>55</v>
-      </c>
-      <c r="E232" s="10">
-        <v>35</v>
-      </c>
-      <c r="F232" s="10">
-        <v>0</v>
-      </c>
-      <c r="G232" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A233" s="18">
-        <v>44862</v>
-      </c>
-      <c r="B233" s="3">
-        <v>304</v>
-      </c>
-      <c r="C233" s="21"/>
-      <c r="D233" s="10">
-        <v>21</v>
-      </c>
-      <c r="E233" s="10">
-        <v>75</v>
-      </c>
-      <c r="F233" s="10">
-        <v>2</v>
-      </c>
-      <c r="G233" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A234" s="18">
-        <v>44869</v>
-      </c>
-      <c r="B234" s="3">
-        <v>143</v>
-      </c>
-      <c r="C234" s="21"/>
-      <c r="D234" s="10">
-        <v>33</v>
-      </c>
-      <c r="E234" s="10">
-        <v>63</v>
-      </c>
-      <c r="F234" s="10">
-        <v>0</v>
-      </c>
-      <c r="G234" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A235" s="18">
-        <v>44883</v>
-      </c>
-      <c r="B235" s="3">
-        <v>48</v>
-      </c>
-      <c r="C235" s="21"/>
-      <c r="D235" s="10">
-        <v>38</v>
-      </c>
-      <c r="E235" s="10">
-        <v>62</v>
-      </c>
-      <c r="F235" s="10">
-        <v>0</v>
-      </c>
-      <c r="G235" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A236" s="18">
-        <v>44897</v>
-      </c>
-      <c r="B236" s="3">
-        <v>77</v>
-      </c>
-      <c r="C236" s="21"/>
-      <c r="D236" s="10">
-        <v>69</v>
-      </c>
-      <c r="E236" s="10">
-        <v>8</v>
-      </c>
-      <c r="F236" s="10">
-        <v>0</v>
-      </c>
-      <c r="G236" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A237" s="18">
-        <v>44911</v>
-      </c>
-      <c r="B237" s="3">
-        <v>12</v>
-      </c>
-      <c r="C237" s="21"/>
-      <c r="D237" s="10">
-        <v>50</v>
-      </c>
-      <c r="E237" s="10">
-        <v>50</v>
-      </c>
-      <c r="F237" s="10">
-        <v>0</v>
-      </c>
-      <c r="G237" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A238" s="18">
-        <v>44926</v>
-      </c>
-      <c r="B238" s="3">
-        <v>12</v>
-      </c>
-      <c r="C238" s="21"/>
-      <c r="D238" s="10">
-        <v>100</v>
-      </c>
-      <c r="E238" s="10">
-        <v>0</v>
-      </c>
-      <c r="F238" s="10">
-        <v>0</v>
-      </c>
-      <c r="G238" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A239" s="18">
-        <v>44939</v>
-      </c>
-      <c r="B239" s="3">
-        <v>12</v>
-      </c>
-      <c r="C239" s="21"/>
-      <c r="D239" s="10">
-        <v>100</v>
-      </c>
-      <c r="E239" s="10">
-        <v>0</v>
-      </c>
-      <c r="F239" s="10">
-        <v>0</v>
-      </c>
-      <c r="G239" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A240" s="18">
-        <v>44953</v>
-      </c>
-      <c r="B240" s="3">
-        <v>0</v>
-      </c>
-      <c r="C240" s="21"/>
-      <c r="D240" s="10">
-        <v>0</v>
-      </c>
-      <c r="E240" s="10">
-        <v>0</v>
-      </c>
-      <c r="F240" s="10">
-        <v>0</v>
-      </c>
-      <c r="G240" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A241" s="18">
-        <v>44967</v>
-      </c>
-      <c r="B241" s="3">
-        <v>12</v>
-      </c>
-      <c r="C241" s="21"/>
-      <c r="D241" s="10">
-        <v>50</v>
-      </c>
-      <c r="E241" s="10">
-        <v>50</v>
-      </c>
-      <c r="F241" s="10">
-        <v>0</v>
-      </c>
-      <c r="G241" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A242" s="18">
-        <v>44980</v>
-      </c>
-      <c r="B242" s="3">
-        <v>0</v>
-      </c>
-      <c r="C242" s="21"/>
-      <c r="D242" s="10">
-        <v>0</v>
-      </c>
-      <c r="E242" s="10">
-        <v>0</v>
-      </c>
-      <c r="F242" s="10">
-        <v>0</v>
-      </c>
-      <c r="G242" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A243" s="18">
-        <v>44987</v>
-      </c>
-      <c r="B243" s="3">
-        <v>6</v>
-      </c>
-      <c r="C243" s="21"/>
-      <c r="D243" s="10">
-        <v>0</v>
-      </c>
-      <c r="E243" s="10">
-        <v>100</v>
-      </c>
-      <c r="F243" s="10">
-        <v>0</v>
-      </c>
-      <c r="G243" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A244" s="18">
-        <v>44994</v>
-      </c>
-      <c r="B244" s="3">
-        <v>0</v>
-      </c>
-      <c r="C244" s="21"/>
-      <c r="D244" s="10">
-        <v>0</v>
-      </c>
-      <c r="E244" s="10">
-        <v>0</v>
-      </c>
-      <c r="F244" s="10">
-        <v>0</v>
-      </c>
-      <c r="G244" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A245" s="18">
-        <v>45001</v>
-      </c>
-      <c r="B245" s="3">
-        <v>6</v>
-      </c>
-      <c r="C245" s="21"/>
-      <c r="D245" s="10">
-        <v>100</v>
-      </c>
-      <c r="E245" s="10">
-        <v>0</v>
-      </c>
-      <c r="F245" s="10">
-        <v>0</v>
-      </c>
-      <c r="G245" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A246" s="18">
-        <v>45009</v>
-      </c>
-      <c r="B246" s="3">
-        <v>0</v>
-      </c>
-      <c r="C246" s="21"/>
-      <c r="D246" s="10">
-        <v>0</v>
-      </c>
-      <c r="E246" s="10">
-        <v>0</v>
-      </c>
-      <c r="F246" s="10">
-        <v>0</v>
-      </c>
-      <c r="G246" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A247" s="18">
-        <v>45015</v>
-      </c>
-      <c r="B247" s="3">
-        <v>0</v>
-      </c>
-      <c r="C247" s="21"/>
-      <c r="D247" s="10">
-        <v>0</v>
-      </c>
-      <c r="E247" s="10">
-        <v>0</v>
-      </c>
-      <c r="F247" s="10">
-        <v>0</v>
-      </c>
-      <c r="G247" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A248" s="18">
-        <v>45023</v>
-      </c>
-      <c r="B248" s="3">
-        <v>0</v>
-      </c>
-      <c r="C248" s="21"/>
-      <c r="D248" s="10">
-        <v>0</v>
-      </c>
-      <c r="E248" s="10">
-        <v>0</v>
-      </c>
-      <c r="F248" s="10">
-        <v>0</v>
-      </c>
-      <c r="G248" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A249" s="18">
-        <v>45029</v>
-      </c>
-      <c r="B249" s="3">
-        <v>12</v>
-      </c>
-      <c r="C249" s="21"/>
-      <c r="D249" s="10">
-        <v>50</v>
-      </c>
-      <c r="E249" s="10">
-        <v>0</v>
-      </c>
-      <c r="F249" s="10">
-        <v>0</v>
-      </c>
-      <c r="G249" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A250" s="18">
-        <v>45037</v>
-      </c>
-      <c r="B250" s="3">
-        <v>0</v>
-      </c>
-      <c r="C250" s="21"/>
-      <c r="D250" s="10">
-        <v>0</v>
-      </c>
-      <c r="E250" s="10">
-        <v>0</v>
-      </c>
-      <c r="F250" s="10">
-        <v>0</v>
-      </c>
-      <c r="G250" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A251" s="18">
-        <v>45044</v>
-      </c>
-      <c r="B251" s="3">
-        <v>0</v>
-      </c>
-      <c r="C251" s="21"/>
-      <c r="D251" s="10">
-        <v>0</v>
-      </c>
-      <c r="E251" s="10">
-        <v>0</v>
-      </c>
-      <c r="F251" s="10">
-        <v>0</v>
-      </c>
-      <c r="G251" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A252" s="18">
-        <v>45050</v>
-      </c>
-      <c r="B252" s="3">
-        <v>0</v>
-      </c>
-      <c r="C252" s="21"/>
-      <c r="D252" s="10">
-        <v>0</v>
-      </c>
-      <c r="E252" s="10">
-        <v>0</v>
-      </c>
-      <c r="F252" s="10">
-        <v>0</v>
-      </c>
-      <c r="G252" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A253" s="18">
-        <v>45056</v>
-      </c>
-      <c r="B253" s="3">
-        <v>0</v>
-      </c>
-      <c r="C253" s="21"/>
-      <c r="D253" s="10">
-        <v>0</v>
-      </c>
-      <c r="E253" s="10">
-        <v>0</v>
-      </c>
-      <c r="F253" s="10">
-        <v>0</v>
-      </c>
-      <c r="G253" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A254" s="18">
-        <v>45063</v>
-      </c>
-      <c r="B254" s="3">
-        <v>0</v>
-      </c>
-      <c r="C254" s="21"/>
-      <c r="D254" s="10">
-        <v>0</v>
-      </c>
-      <c r="E254" s="10">
-        <v>0</v>
-      </c>
-      <c r="F254" s="10">
-        <v>0</v>
-      </c>
-      <c r="G254" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A255" s="18">
-        <v>45071</v>
-      </c>
-      <c r="B255" s="3">
-        <v>54</v>
-      </c>
-      <c r="C255" s="21"/>
-      <c r="D255" s="10">
-        <v>11</v>
-      </c>
-      <c r="E255" s="10">
-        <v>0</v>
-      </c>
-      <c r="F255" s="10">
-        <v>67</v>
-      </c>
-      <c r="G255" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A256" s="18">
-        <v>45079</v>
-      </c>
-      <c r="B256" s="3">
-        <v>77</v>
-      </c>
-      <c r="C256" s="21"/>
-      <c r="D256" s="10">
-        <v>46</v>
-      </c>
-      <c r="E256" s="10">
-        <v>0</v>
-      </c>
-      <c r="F256" s="10">
-        <v>38</v>
-      </c>
-      <c r="G256" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A257" s="18">
-        <v>45087</v>
-      </c>
-      <c r="B257" s="3">
-        <v>6</v>
-      </c>
-      <c r="C257" s="21"/>
-      <c r="D257" s="10">
-        <v>0</v>
-      </c>
-      <c r="E257" s="10">
-        <v>0</v>
-      </c>
-      <c r="F257" s="10">
-        <v>100</v>
-      </c>
-      <c r="G257" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A258" s="18">
-        <v>45091</v>
-      </c>
-      <c r="B258" s="3">
-        <v>24</v>
-      </c>
-      <c r="C258" s="21"/>
-      <c r="D258" s="10">
-        <v>75</v>
-      </c>
-      <c r="E258" s="10">
-        <v>0</v>
-      </c>
-      <c r="F258" s="10">
-        <v>25</v>
-      </c>
-      <c r="G258" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A259" s="18">
-        <v>45099</v>
-      </c>
-      <c r="B259" s="3">
-        <v>202</v>
-      </c>
-      <c r="C259" s="21"/>
-      <c r="D259" s="10">
-        <v>18</v>
-      </c>
-      <c r="E259" s="10">
-        <v>47</v>
-      </c>
-      <c r="F259" s="10">
-        <v>32</v>
-      </c>
-      <c r="G259" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A260" s="18">
-        <v>45106</v>
-      </c>
-      <c r="B260" s="3">
-        <v>6</v>
-      </c>
-      <c r="C260" s="21"/>
-      <c r="D260" s="10">
-        <v>100</v>
-      </c>
-      <c r="E260" s="10">
-        <v>0</v>
-      </c>
-      <c r="F260" s="10">
-        <v>0</v>
-      </c>
-      <c r="G260" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A261" s="18">
-        <v>45113</v>
-      </c>
-      <c r="B261" s="3">
-        <v>530</v>
-      </c>
-      <c r="C261" s="21"/>
-      <c r="D261" s="10">
-        <v>29</v>
-      </c>
-      <c r="E261" s="10">
-        <v>32</v>
-      </c>
-      <c r="F261" s="10">
-        <v>39</v>
-      </c>
-      <c r="G261" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A262" s="18">
-        <v>45120</v>
-      </c>
-      <c r="B262" s="3">
-        <v>107</v>
-      </c>
-      <c r="C262" s="21"/>
-      <c r="D262" s="10">
-        <v>45</v>
-      </c>
-      <c r="E262" s="10">
-        <v>22</v>
-      </c>
-      <c r="F262" s="10">
-        <v>0</v>
-      </c>
-      <c r="G262" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A263" s="18">
-        <v>45127</v>
-      </c>
-      <c r="B263" s="3">
-        <v>1393</v>
-      </c>
-      <c r="C263" s="21"/>
-      <c r="D263" s="10">
-        <v>22</v>
-      </c>
-      <c r="E263" s="10">
-        <v>51</v>
-      </c>
-      <c r="F263" s="10">
-        <v>23</v>
-      </c>
-      <c r="G263" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A264" s="18">
-        <v>45134</v>
-      </c>
-      <c r="B264" s="3">
-        <v>1667</v>
-      </c>
-      <c r="C264" s="21"/>
-      <c r="D264" s="10">
-        <v>19</v>
-      </c>
-      <c r="E264" s="10">
-        <v>52</v>
-      </c>
-      <c r="F264" s="10">
-        <v>22</v>
-      </c>
-      <c r="G264" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A265" s="18">
-        <v>45141</v>
-      </c>
-      <c r="B265" s="3">
-        <v>482</v>
-      </c>
-      <c r="C265" s="21"/>
-      <c r="D265" s="10">
-        <v>47</v>
-      </c>
-      <c r="E265" s="10">
-        <v>8</v>
-      </c>
-      <c r="F265" s="10">
-        <v>38</v>
-      </c>
-      <c r="G265" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A266" s="18">
-        <v>45148</v>
-      </c>
-      <c r="B266" s="3">
-        <v>387</v>
-      </c>
-      <c r="C266" s="21"/>
-      <c r="D266" s="10">
-        <v>42</v>
-      </c>
-      <c r="E266" s="10">
-        <v>18</v>
-      </c>
-      <c r="F266" s="10">
-        <v>29</v>
-      </c>
-      <c r="G266" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A267" s="18">
-        <v>45155</v>
-      </c>
-      <c r="B267" s="3">
-        <v>905</v>
-      </c>
-      <c r="C267" s="21"/>
-      <c r="D267" s="10">
-        <v>26</v>
-      </c>
-      <c r="E267" s="10">
-        <v>49</v>
-      </c>
-      <c r="F267" s="10">
-        <v>20</v>
-      </c>
-      <c r="G267" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A268" s="18">
-        <v>45162</v>
-      </c>
-      <c r="B268" s="3">
-        <v>339</v>
-      </c>
-      <c r="C268" s="21"/>
-      <c r="D268" s="10">
-        <v>21</v>
-      </c>
-      <c r="E268" s="10">
-        <v>61</v>
-      </c>
-      <c r="F268" s="10">
-        <v>16</v>
-      </c>
-      <c r="G268" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A269" s="18">
-        <v>45170</v>
-      </c>
-      <c r="B269" s="3">
-        <v>137</v>
-      </c>
-      <c r="C269" s="21"/>
-      <c r="D269" s="10">
-        <v>17</v>
-      </c>
-      <c r="E269" s="10">
-        <v>39</v>
-      </c>
-      <c r="F269" s="10">
-        <v>39</v>
-      </c>
-      <c r="G269" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A270" s="18">
-        <v>45176</v>
-      </c>
-      <c r="B270" s="3">
-        <v>24</v>
-      </c>
-      <c r="C270" s="21"/>
-      <c r="D270" s="10">
-        <v>50</v>
-      </c>
-      <c r="E270" s="10">
-        <v>50</v>
-      </c>
-      <c r="F270" s="10">
-        <v>0</v>
-      </c>
-      <c r="G270" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A271" s="18">
-        <v>45183</v>
-      </c>
-      <c r="B271" s="3">
-        <v>54</v>
-      </c>
-      <c r="C271" s="21"/>
-      <c r="D271" s="10">
-        <v>22</v>
-      </c>
-      <c r="E271" s="10">
-        <v>33</v>
-      </c>
-      <c r="F271" s="10">
-        <v>45</v>
-      </c>
-      <c r="G271" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A272" s="18">
-        <v>45190</v>
-      </c>
-      <c r="B272" s="3">
-        <v>268</v>
-      </c>
-      <c r="C272" s="21"/>
-      <c r="D272" s="10">
-        <v>83</v>
-      </c>
-      <c r="E272" s="10">
-        <v>11</v>
-      </c>
-      <c r="F272" s="10">
-        <v>4</v>
-      </c>
-      <c r="G272" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A273" s="18">
-        <v>45197</v>
-      </c>
-      <c r="B273" s="3">
-        <v>77</v>
-      </c>
-      <c r="C273" s="21"/>
-      <c r="D273" s="10">
-        <v>62</v>
-      </c>
-      <c r="E273" s="10">
-        <v>8</v>
-      </c>
-      <c r="F273" s="10">
-        <v>23</v>
-      </c>
-      <c r="G273" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A274" s="18">
-        <v>45203</v>
-      </c>
-      <c r="B274" s="3">
-        <v>48</v>
-      </c>
-      <c r="C274" s="21"/>
-      <c r="D274" s="10">
-        <v>50</v>
-      </c>
-      <c r="E274" s="10">
-        <v>50</v>
-      </c>
-      <c r="F274" s="10">
-        <v>0</v>
-      </c>
-      <c r="G274" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A275" s="18">
-        <v>45211</v>
-      </c>
-      <c r="B275" s="3">
-        <v>661</v>
-      </c>
-      <c r="C275" s="21"/>
-      <c r="D275" s="10">
-        <v>41</v>
-      </c>
-      <c r="E275" s="10">
-        <v>41</v>
-      </c>
-      <c r="F275" s="10">
-        <v>3</v>
-      </c>
-      <c r="G275" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A276" s="18">
-        <v>45219</v>
-      </c>
-      <c r="B276" s="3">
-        <v>762</v>
-      </c>
-      <c r="C276" s="21"/>
-      <c r="D276" s="10">
-        <v>66</v>
-      </c>
-      <c r="E276" s="10">
-        <v>30</v>
-      </c>
-      <c r="F276" s="10">
-        <v>1</v>
-      </c>
-      <c r="G276" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A277" s="18">
-        <v>45227</v>
-      </c>
-      <c r="B277" s="51">
-        <v>4435</v>
-      </c>
-      <c r="C277" s="21"/>
-      <c r="D277" s="10">
-        <v>38</v>
-      </c>
-      <c r="E277" s="10">
-        <v>55</v>
-      </c>
-      <c r="F277" s="10">
-        <v>6</v>
-      </c>
-      <c r="G277" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A278" s="18">
-        <v>45233</v>
-      </c>
-      <c r="B278" s="3">
-        <v>48</v>
-      </c>
-      <c r="C278" s="21"/>
-      <c r="D278" s="10">
-        <v>75</v>
-      </c>
-      <c r="E278" s="10">
-        <v>25</v>
-      </c>
-      <c r="F278" s="10">
-        <v>0</v>
-      </c>
-      <c r="G278" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A279" s="18">
-        <v>45238</v>
-      </c>
-      <c r="B279" s="3">
-        <v>5024</v>
-      </c>
-      <c r="C279" s="21"/>
-      <c r="D279" s="10">
-        <v>39</v>
-      </c>
-      <c r="E279" s="10">
-        <v>58</v>
-      </c>
-      <c r="F279" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="G279" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A280" s="20"/>
-      <c r="B280" s="21"/>
-      <c r="C280" s="21"/>
-      <c r="D280" s="23"/>
-      <c r="E280" s="23"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A281" s="20"/>
-      <c r="B281" s="21"/>
-      <c r="C281" s="21"/>
-      <c r="D281" s="23"/>
-      <c r="E281" s="23"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A282" s="20"/>
-      <c r="B282" s="21"/>
-      <c r="C282" s="21"/>
-      <c r="D282" s="23"/>
-      <c r="E282" s="23"/>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A283" s="20"/>
-      <c r="B283" s="21"/>
-      <c r="C283" s="21"/>
-      <c r="D283" s="23"/>
-      <c r="E283" s="23"/>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A284" s="20"/>
-      <c r="B284" s="21"/>
-      <c r="C284" s="21"/>
-      <c r="D284" s="23"/>
-      <c r="E284" s="23"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A285" s="20"/>
-      <c r="B285" s="21"/>
-      <c r="C285" s="21"/>
-      <c r="D285" s="23"/>
-      <c r="E285" s="23"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A286" s="20"/>
-      <c r="B286" s="21"/>
-      <c r="C286" s="21"/>
-      <c r="D286" s="23"/>
-      <c r="E286" s="23"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="20"/>
@@ -9812,7 +10959,7 @@
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
       <c r="D298" s="23"/>
-      <c r="E298" s="23"/>
+      <c r="E298" s="22"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="20"/>
@@ -9854,7 +11001,7 @@
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
       <c r="D304" s="23"/>
-      <c r="E304" s="22"/>
+      <c r="E304" s="23"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="20"/>
@@ -9905,13 +11052,6 @@
       <c r="D311" s="23"/>
       <c r="E311" s="23"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A312" s="20"/>
-      <c r="B312" s="21"/>
-      <c r="C312" s="21"/>
-      <c r="D312" s="23"/>
-      <c r="E312" s="23"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
